--- a/US/data/BOC/FTD/FTDE/ctyseasonal.xlsx
+++ b/US/data/BOC/FTD/FTDE/ctyseasonal.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ctyseasonal!$A$1:$AY$233</definedName>
-    <definedName name="ctyseasonal">'ctyseasonal'!$A$1:$AY$266</definedName>
+    <definedName name="ctyseasonal">'ctyseasonal'!$A$1:$AY$282</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="true"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>year</t>
   </si>
@@ -314,6 +314,54 @@
   </si>
   <si>
     <t>Taiwan</t>
+  </si>
+  <si>
+    <t>6021</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>4231</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>4190</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>5081</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>5570</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>4419</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>5520</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -36118,148 +36166,148 @@
         <v>52</v>
       </c>
       <c r="D229">
-        <v>-22630395350.314682</v>
+        <v>-7799171094.226154</v>
       </c>
       <c r="E229">
-        <v>-26321292943.723717</v>
+        <v>-10312569001.262856</v>
       </c>
       <c r="F229">
-        <v>-26685039491.685127</v>
+        <v>-9751507332.241497</v>
       </c>
       <c r="G229">
-        <v>-24785852681.71219</v>
+        <v>-10687145668.515247</v>
       </c>
       <c r="H229">
-        <v>-27490807830.862404</v>
+        <v>-11886673577.081493</v>
       </c>
       <c r="I229">
-        <v>-30825868302.600433</v>
+        <v>-11242012307.397594</v>
       </c>
       <c r="J229">
-        <v>-25685928002.58394</v>
+        <v>-11340852163.329235</v>
       </c>
       <c r="K229">
-        <v>-27558837950.94036</v>
+        <v>-11840914795.785057</v>
       </c>
       <c r="L229">
-        <v>-27644032761.32319</v>
+        <v>-11381832779.2942</v>
       </c>
       <c r="M229">
-        <v>-24028309077.629997</v>
+        <v>-10770125180.596851</v>
       </c>
       <c r="N229">
-        <v>-31699796205.877533</v>
+        <v>-11890038977.689793</v>
       </c>
       <c r="O229">
-        <v>-27987390263.74639</v>
+        <v>-11553263851.579971</v>
       </c>
       <c r="P229">
-        <v>-75636727785.72353</v>
+        <v>-27863247427.730507</v>
       </c>
       <c r="Q229">
-        <v>-83102528815.17502</v>
+        <v>-33815831552.994335</v>
       </c>
       <c r="R229">
-        <v>-80888798714.84749</v>
+        <v>-34563599738.40849</v>
       </c>
       <c r="S229">
-        <v>-83715495547.25392</v>
+        <v>-34213428009.866615</v>
       </c>
       <c r="T229">
-        <v>38002543144.60749</v>
+        <v>23694694765.569492</v>
       </c>
       <c r="U229">
-        <v>37591203652.05916</v>
+        <v>22317544554.387344</v>
       </c>
       <c r="V229">
-        <v>39344255361.1475</v>
+        <v>24620016618.973972</v>
       </c>
       <c r="W229">
-        <v>40217781394.30143</v>
+        <v>24637803565.44456</v>
       </c>
       <c r="X229">
-        <v>40609921484.49758</v>
+        <v>25254183252.463505</v>
       </c>
       <c r="Y229">
-        <v>39112885225.73753</v>
+        <v>24819706855.278507</v>
       </c>
       <c r="Z229">
-        <v>41632354285.71962</v>
+        <v>25586317912.923725</v>
       </c>
       <c r="AA229">
-        <v>43667856946.459404</v>
+        <v>26056911542.053047</v>
       </c>
       <c r="AB229">
-        <v>42354203959.345695</v>
+        <v>26651105338.630863</v>
       </c>
       <c r="AC229">
-        <v>46336407228.59336</v>
+        <v>28107782715.29742</v>
       </c>
       <c r="AD229">
-        <v>44999722593.46477</v>
+        <v>29437263600.958096</v>
       </c>
       <c r="AE229">
-        <v>45650149130.066475</v>
+        <v>28745275923.019493</v>
       </c>
       <c r="AF229">
-        <v>114938002157.81415</v>
+        <v>70632255938.9308</v>
       </c>
       <c r="AG229">
-        <v>119940588104.53654</v>
+        <v>74711693673.18657</v>
       </c>
       <c r="AH229">
-        <v>127654415191.52472</v>
+        <v>78294334793.60764</v>
       </c>
       <c r="AI229">
-        <v>136986278952.1246</v>
+        <v>86290322239.27501</v>
       </c>
       <c r="AJ229">
-        <v>60632938494.92217</v>
+        <v>31493865859.795647</v>
       </c>
       <c r="AK229">
-        <v>63912496595.782875</v>
+        <v>32630113555.6502</v>
       </c>
       <c r="AL229">
-        <v>66029294852.83263</v>
+        <v>34371523951.21547</v>
       </c>
       <c r="AM229">
-        <v>65003634076.01362</v>
+        <v>35324949233.95981</v>
       </c>
       <c r="AN229">
-        <v>68100729315.359985</v>
+        <v>37140856829.545</v>
       </c>
       <c r="AO229">
-        <v>69938753528.33797</v>
+        <v>36061719162.6761</v>
       </c>
       <c r="AP229">
-        <v>67318282288.30356</v>
+        <v>36927170076.25296</v>
       </c>
       <c r="AQ229">
-        <v>71226694897.39977</v>
+        <v>37897826337.838104</v>
       </c>
       <c r="AR229">
-        <v>69998236720.66888</v>
+        <v>38032938117.925064</v>
       </c>
       <c r="AS229">
-        <v>70364716306.22336</v>
+        <v>38877907895.89427</v>
       </c>
       <c r="AT229">
-        <v>76699518799.3423</v>
+        <v>41327302578.64789</v>
       </c>
       <c r="AU229">
-        <v>73637539393.81287</v>
+        <v>40298539774.599464</v>
       </c>
       <c r="AV229">
-        <v>190574729943.53766</v>
+        <v>98495503366.66132</v>
       </c>
       <c r="AW229">
-        <v>203043116919.71155</v>
+        <v>108527525226.18091</v>
       </c>
       <c r="AX229">
-        <v>208543213906.3722</v>
+        <v>112857934532.01613</v>
       </c>
       <c r="AY229">
-        <v>220701774499.37854</v>
+        <v>120503750249.14163</v>
       </c>
     </row>
     <row r="230" spans="1:51" x14ac:dyDescent="0.25">
@@ -36267,154 +36315,154 @@
         <v>2021</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C230" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="D230">
-        <v>1398210215.152981</v>
+        <v>1013864712.0276722</v>
       </c>
       <c r="E230">
-        <v>1321294983.1627867</v>
+        <v>617664815.1783879</v>
       </c>
       <c r="F230">
-        <v>1031785800.3318615</v>
+        <v>1594911543.8108974</v>
       </c>
       <c r="G230">
-        <v>1098264653.212388</v>
+        <v>1333507261.924407</v>
       </c>
       <c r="H230">
-        <v>1164137262.603909</v>
+        <v>1503870295.7492223</v>
       </c>
       <c r="I230">
-        <v>1509875683.8547006</v>
+        <v>1241564627.4556613</v>
       </c>
       <c r="J230">
-        <v>1393021042.5955725</v>
+        <v>1201089546.6742358</v>
       </c>
       <c r="K230">
-        <v>2063286724.3495274</v>
+        <v>1176806584.3772693</v>
       </c>
       <c r="L230">
-        <v>1155859739.8409157</v>
+        <v>1111448639.2228248</v>
       </c>
       <c r="M230">
-        <v>1267041702.0180755</v>
+        <v>1079283415.6838002</v>
       </c>
       <c r="N230">
-        <v>1031431024.3827839</v>
+        <v>1071287533.0690296</v>
       </c>
       <c r="O230">
-        <v>1162931697.4945054</v>
+        <v>1042137680.8265896</v>
       </c>
       <c r="P230">
-        <v>3751290998.6476293</v>
+        <v>3226441071.0169573</v>
       </c>
       <c r="Q230">
-        <v>3772277599.6709976</v>
+        <v>4078942185.1292906</v>
       </c>
       <c r="R230">
-        <v>4612167506.7860155</v>
+        <v>3489344770.27433</v>
       </c>
       <c r="S230">
-        <v>3461404423.8953648</v>
+        <v>3192708629.579419</v>
       </c>
       <c r="T230">
-        <v>3197466513.8562183</v>
+        <v>1967202085.394005</v>
       </c>
       <c r="U230">
-        <v>3338474878.279794</v>
+        <v>1874119678.8728132</v>
       </c>
       <c r="V230">
-        <v>3187243288.2584114</v>
+        <v>2446355793.706624</v>
       </c>
       <c r="W230">
-        <v>3580452682.502182</v>
+        <v>2283208336.4174414</v>
       </c>
       <c r="X230">
-        <v>3698746697.788233</v>
+        <v>2425053421.30816</v>
       </c>
       <c r="Y230">
-        <v>4218523812.9073453</v>
+        <v>2243497115.9587593</v>
       </c>
       <c r="Z230">
-        <v>4271719414.121622</v>
+        <v>2156284384.794536</v>
       </c>
       <c r="AA230">
-        <v>4621333783.457038</v>
+        <v>2264208491.5391936</v>
       </c>
       <c r="AB230">
-        <v>4390263613.584336</v>
+        <v>2142049468.1219208</v>
       </c>
       <c r="AC230">
-        <v>4275074482.445282</v>
+        <v>2292814158.1835785</v>
       </c>
       <c r="AD230">
-        <v>4004832860.4069233</v>
+        <v>2197216054.7663765</v>
       </c>
       <c r="AE230">
-        <v>4097920199.3926177</v>
+        <v>2161914713.9365873</v>
       </c>
       <c r="AF230">
-        <v>9723184680.394424</v>
+        <v>6287677557.973442</v>
       </c>
       <c r="AG230">
-        <v>11497723193.19776</v>
+        <v>6951758873.6843605</v>
       </c>
       <c r="AH230">
-        <v>13283316811.162994</v>
+        <v>6562542344.45565</v>
       </c>
       <c r="AI230">
-        <v>12377827542.244823</v>
+        <v>6651944926.886542</v>
       </c>
       <c r="AJ230">
-        <v>1799256298.7032373</v>
+        <v>953337373.3663329</v>
       </c>
       <c r="AK230">
-        <v>2017179895.1170075</v>
+        <v>1256454863.6944253</v>
       </c>
       <c r="AL230">
-        <v>2155457487.92655</v>
+        <v>851444249.8957268</v>
       </c>
       <c r="AM230">
-        <v>2482188029.289794</v>
+        <v>949701074.4930344</v>
       </c>
       <c r="AN230">
-        <v>2534609435.184324</v>
+        <v>921183125.5589377</v>
       </c>
       <c r="AO230">
-        <v>2708648129.0526447</v>
+        <v>1001932488.503098</v>
       </c>
       <c r="AP230">
-        <v>2878698371.5260496</v>
+        <v>955194838.1203004</v>
       </c>
       <c r="AQ230">
-        <v>2558047059.1075106</v>
+        <v>1087401907.1619244</v>
       </c>
       <c r="AR230">
-        <v>3234403873.7434206</v>
+        <v>1030600828.899096</v>
       </c>
       <c r="AS230">
-        <v>3008032780.4272065</v>
+        <v>1213530742.4997783</v>
       </c>
       <c r="AT230">
-        <v>2973401836.0241394</v>
+        <v>1125928521.697347</v>
       </c>
       <c r="AU230">
-        <v>2934988501.8981123</v>
+        <v>1119777033.1099977</v>
       </c>
       <c r="AV230">
-        <v>5971893681.746795</v>
+        <v>3061236486.956485</v>
       </c>
       <c r="AW230">
-        <v>7725445593.526762</v>
+        <v>2872816688.55507</v>
       </c>
       <c r="AX230">
-        <v>8671149304.37698</v>
+        <v>3073197574.1813207</v>
       </c>
       <c r="AY230">
-        <v>8916423118.349457</v>
+        <v>3459236297.307123</v>
       </c>
     </row>
     <row r="231" spans="1:51" x14ac:dyDescent="0.25">
@@ -36422,154 +36470,154 @@
         <v>2021</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C231" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D231">
-        <v>643297268.6345615</v>
+        <v>617845585.1237414</v>
       </c>
       <c r="E231">
-        <v>481791101.2710786</v>
+        <v>679028376.7429338</v>
       </c>
       <c r="F231">
-        <v>603712981.3560839</v>
+        <v>841879600.7841141</v>
       </c>
       <c r="G231">
-        <v>733781834.8319883</v>
+        <v>635970525.419941</v>
       </c>
       <c r="H231">
-        <v>619043522.6451583</v>
+        <v>1482300334.098814</v>
       </c>
       <c r="I231">
-        <v>866749823.9915309</v>
+        <v>1005463126.7944665</v>
       </c>
       <c r="J231">
-        <v>719796198.0941653</v>
+        <v>921327803.0519557</v>
       </c>
       <c r="K231">
-        <v>810597703.3104687</v>
+        <v>1028003626.9506893</v>
       </c>
       <c r="L231">
-        <v>498326337.3660865</v>
+        <v>1795829187.9013543</v>
       </c>
       <c r="M231">
-        <v>810671607.1074739</v>
+        <v>1050564842.450521</v>
       </c>
       <c r="N231">
-        <v>768571328.9522943</v>
+        <v>1139935091.228346</v>
       </c>
       <c r="O231">
-        <v>1003240641.4391065</v>
+        <v>1526734090.4531245</v>
       </c>
       <c r="P231">
-        <v>1728801351.261724</v>
+        <v>2138753562.6507893</v>
       </c>
       <c r="Q231">
-        <v>2219575181.4686775</v>
+        <v>3123733986.3132215</v>
       </c>
       <c r="R231">
-        <v>2028720238.7707205</v>
+        <v>3745160617.9039993</v>
       </c>
       <c r="S231">
-        <v>2582483577.4988747</v>
+        <v>3717234024.131992</v>
       </c>
       <c r="T231">
-        <v>2943312210.9569077</v>
+        <v>2567015100.9256988</v>
       </c>
       <c r="U231">
-        <v>2727372305.4614124</v>
+        <v>2698080954.509224</v>
       </c>
       <c r="V231">
-        <v>3097078054.980188</v>
+        <v>2487056913.73265</v>
       </c>
       <c r="W231">
-        <v>3056064182.416286</v>
+        <v>2380041388.0204954</v>
       </c>
       <c r="X231">
-        <v>3209964498.688283</v>
+        <v>3038721585.841365</v>
       </c>
       <c r="Y231">
-        <v>3360676848.1440663</v>
+        <v>2782998467.9456005</v>
       </c>
       <c r="Z231">
-        <v>3226813542.8515286</v>
+        <v>2646594946.8552175</v>
       </c>
       <c r="AA231">
-        <v>3357167719.268204</v>
+        <v>2858625221.4403663</v>
       </c>
       <c r="AB231">
-        <v>3062222971.2021375</v>
+        <v>3493475933.897603</v>
       </c>
       <c r="AC231">
-        <v>3413688703.660885</v>
+        <v>2887276459.963821</v>
       </c>
       <c r="AD231">
-        <v>3384393094.0546985</v>
+        <v>2878141375.6986523</v>
       </c>
       <c r="AE231">
-        <v>3656993907.315401</v>
+        <v>3002922331.1693053</v>
       </c>
       <c r="AF231">
-        <v>8767762571.398508</v>
+        <v>7752152969.167573</v>
       </c>
       <c r="AG231">
-        <v>9626705529.248634</v>
+        <v>8201761441.807461</v>
       </c>
       <c r="AH231">
-        <v>9646204233.32187</v>
+        <v>8998696102.193188</v>
       </c>
       <c r="AI231">
-        <v>10455075705.030985</v>
+        <v>8768340166.83178</v>
       </c>
       <c r="AJ231">
-        <v>2300014942.322346</v>
+        <v>1949169515.8019574</v>
       </c>
       <c r="AK231">
-        <v>2245581204.190334</v>
+        <v>2019052577.7662902</v>
       </c>
       <c r="AL231">
-        <v>2493365073.624104</v>
+        <v>1645177312.9485357</v>
       </c>
       <c r="AM231">
-        <v>2322282347.5842977</v>
+        <v>1744070862.6005545</v>
       </c>
       <c r="AN231">
-        <v>2590920976.0431247</v>
+        <v>1556421251.7425508</v>
       </c>
       <c r="AO231">
-        <v>2493927024.1525354</v>
+        <v>1777535341.151134</v>
       </c>
       <c r="AP231">
-        <v>2507017344.7573633</v>
+        <v>1725267143.8032618</v>
       </c>
       <c r="AQ231">
-        <v>2546570015.9577355</v>
+        <v>1830621594.489677</v>
       </c>
       <c r="AR231">
-        <v>2563896633.836051</v>
+        <v>1697646745.9962487</v>
       </c>
       <c r="AS231">
-        <v>2603017096.553411</v>
+        <v>1836711617.5133</v>
       </c>
       <c r="AT231">
-        <v>2615821765.102404</v>
+        <v>1738206284.4703062</v>
       </c>
       <c r="AU231">
-        <v>2653753265.8762946</v>
+        <v>1476188240.7161808</v>
       </c>
       <c r="AV231">
-        <v>7038961220.136784</v>
+        <v>5613399406.516784</v>
       </c>
       <c r="AW231">
-        <v>7407130347.779958</v>
+        <v>5078027455.49424</v>
       </c>
       <c r="AX231">
-        <v>7617483994.55115</v>
+        <v>5253535484.289187</v>
       </c>
       <c r="AY231">
-        <v>7872592127.53211</v>
+        <v>5051106142.699787</v>
       </c>
     </row>
     <row r="232" spans="1:51" x14ac:dyDescent="0.25">
@@ -36577,154 +36625,154 @@
         <v>2021</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C232" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D232">
-        <v>-2237262029.3164406</v>
+        <v>1351695797.432261</v>
       </c>
       <c r="E232">
-        <v>-3887638180.2217293</v>
+        <v>1270754915.2553403</v>
       </c>
       <c r="F232">
-        <v>-3637773669.3972626</v>
+        <v>1161917366.1411185</v>
       </c>
       <c r="G232">
-        <v>-3098823429.2492485</v>
+        <v>1001910758.8487382</v>
       </c>
       <c r="H232">
-        <v>-4830779014.983898</v>
+        <v>1261441940.6023006</v>
       </c>
       <c r="I232">
-        <v>-5562365792.537945</v>
+        <v>1469640102.953504</v>
       </c>
       <c r="J232">
-        <v>-3706351810.194748</v>
+        <v>1411317918.7814288</v>
       </c>
       <c r="K232">
-        <v>-5110107242.827312</v>
+        <v>1757986196.4058952</v>
       </c>
       <c r="L232">
-        <v>-4717280515.608105</v>
+        <v>1124864338.7544618</v>
       </c>
       <c r="M232">
-        <v>-3159257696.2938156</v>
+        <v>1384147822.3201985</v>
       </c>
       <c r="N232">
-        <v>-5410371733.002407</v>
+        <v>956630882.7781487</v>
       </c>
       <c r="O232">
-        <v>-4190973084.3670464</v>
+        <v>1518860392.7266064</v>
       </c>
       <c r="P232">
-        <v>-9762673878.935432</v>
+        <v>3784368078.8287196</v>
       </c>
       <c r="Q232">
-        <v>-13491968236.771091</v>
+        <v>3732992802.404543</v>
       </c>
       <c r="R232">
-        <v>-13533739568.630165</v>
+        <v>4294168453.941786</v>
       </c>
       <c r="S232">
-        <v>-12760602513.663269</v>
+        <v>3859639097.8249536</v>
       </c>
       <c r="T232">
-        <v>24089410709.856785</v>
+        <v>3239948704.4588284</v>
       </c>
       <c r="U232">
-        <v>23850345317.067104</v>
+        <v>3371421018.08649</v>
       </c>
       <c r="V232">
-        <v>25222861262.51662</v>
+        <v>3349944332.799169</v>
       </c>
       <c r="W232">
-        <v>24359005942.454853</v>
+        <v>3471713386.226116</v>
       </c>
       <c r="X232">
-        <v>24557360321.048435</v>
+        <v>3789120483.774735</v>
       </c>
       <c r="Y232">
-        <v>24836512448.243702</v>
+        <v>4135290976.782665</v>
       </c>
       <c r="Z232">
-        <v>26804660571.917835</v>
+        <v>4238253040.8250847</v>
       </c>
       <c r="AA232">
-        <v>25233873588.418655</v>
+        <v>4475315788.72175</v>
       </c>
       <c r="AB232">
-        <v>24087065681.218136</v>
+        <v>4399217285.268649</v>
       </c>
       <c r="AC232">
-        <v>27557950299.914886</v>
+        <v>4297334315.067522</v>
       </c>
       <c r="AD232">
-        <v>28142036434.99923</v>
+        <v>3864046200.358833</v>
       </c>
       <c r="AE232">
-        <v>28869736553.343765</v>
+        <v>4303354799.630156</v>
       </c>
       <c r="AF232">
-        <v>73162617289.4405</v>
+        <v>9961314055.344488</v>
       </c>
       <c r="AG232">
-        <v>73752878711.747</v>
+        <v>11396124846.783516</v>
       </c>
       <c r="AH232">
-        <v>76125599841.55463</v>
+        <v>13112786114.815483</v>
       </c>
       <c r="AI232">
-        <v>84569723288.25787</v>
+        <v>12464735315.05651</v>
       </c>
       <c r="AJ232">
-        <v>26326672739.173225</v>
+        <v>1888252907.0265675</v>
       </c>
       <c r="AK232">
-        <v>27737983497.288834</v>
+        <v>2100666102.8311498</v>
       </c>
       <c r="AL232">
-        <v>28860634931.913883</v>
+        <v>2188026966.6580505</v>
       </c>
       <c r="AM232">
-        <v>27457829371.7041</v>
+        <v>2469802627.377378</v>
       </c>
       <c r="AN232">
-        <v>29388139336.032333</v>
+        <v>2527678543.1724343</v>
       </c>
       <c r="AO232">
-        <v>30398878240.781647</v>
+        <v>2665650873.8291607</v>
       </c>
       <c r="AP232">
-        <v>30511012382.112583</v>
+        <v>2826935122.043656</v>
       </c>
       <c r="AQ232">
-        <v>30343980831.245968</v>
+        <v>2717329592.315855</v>
       </c>
       <c r="AR232">
-        <v>28804346196.82624</v>
+        <v>3274352946.5141873</v>
       </c>
       <c r="AS232">
-        <v>30717207996.208702</v>
+        <v>2913186492.7473235</v>
       </c>
       <c r="AT232">
-        <v>33552408168.001637</v>
+        <v>2907415317.580684</v>
       </c>
       <c r="AU232">
-        <v>33060709637.71081</v>
+        <v>2784494406.903549</v>
       </c>
       <c r="AV232">
-        <v>82925291168.37595</v>
+        <v>6176945976.515768</v>
       </c>
       <c r="AW232">
-        <v>87244846948.51808</v>
+        <v>7663132044.378973</v>
       </c>
       <c r="AX232">
-        <v>89659339410.18478</v>
+        <v>8818617660.873697</v>
       </c>
       <c r="AY232">
-        <v>97330325801.92116</v>
+        <v>8605096217.231556</v>
       </c>
     </row>
     <row r="233" spans="1:51" x14ac:dyDescent="0.25">
@@ -36732,154 +36780,154 @@
         <v>2021</v>
       </c>
       <c r="B233" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C233" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D233">
-        <v>-25904566512.554214</v>
+        <v>543458423.6539516</v>
       </c>
       <c r="E233">
-        <v>-30293942481.818665</v>
+        <v>457465306.4488616</v>
       </c>
       <c r="F233">
-        <v>-39141880570.21829</v>
+        <v>654565029.7089767</v>
       </c>
       <c r="G233">
-        <v>-32076508347.059788</v>
+        <v>741749553.6520786</v>
       </c>
       <c r="H233">
-        <v>-26941623347.330444</v>
+        <v>669590412.5254626</v>
       </c>
       <c r="I233">
-        <v>-26768679658.231564</v>
+        <v>837206252.9338536</v>
       </c>
       <c r="J233">
-        <v>-24745209814.10224</v>
+        <v>744616147.5809107</v>
       </c>
       <c r="K233">
-        <v>-27851952150.867416</v>
+        <v>843315724.3444734</v>
       </c>
       <c r="L233">
-        <v>-31239722605.315926</v>
+        <v>602098802.94316</v>
       </c>
       <c r="M233">
-        <v>-28044209803.27342</v>
+        <v>828714616.8669748</v>
       </c>
       <c r="N233">
-        <v>-28156577805.867447</v>
+        <v>837770851.4861422</v>
       </c>
       <c r="O233">
-        <v>-34136815451.36058</v>
+        <v>1068883049.8551412</v>
       </c>
       <c r="P233">
-        <v>-95340389564.59117</v>
+        <v>1655488759.81179</v>
       </c>
       <c r="Q233">
-        <v>-85786811352.6218</v>
+        <v>2248546219.111395</v>
       </c>
       <c r="R233">
-        <v>-83836884570.28558</v>
+        <v>2190030674.868544</v>
       </c>
       <c r="S233">
-        <v>-90337603060.50145</v>
+        <v>2735368518.208258</v>
       </c>
       <c r="T233">
-        <v>14346967416.666098</v>
+        <v>2849697024.0135984</v>
       </c>
       <c r="U233">
-        <v>10556325324.881327</v>
+        <v>2730474386.9041266</v>
       </c>
       <c r="V233">
-        <v>12107266939.845469</v>
+        <v>3120660922.5681267</v>
       </c>
       <c r="W233">
-        <v>13156531767.464825</v>
+        <v>3090038563.6761413</v>
       </c>
       <c r="X233">
-        <v>13129739993.775162</v>
+        <v>3199157944.0038376</v>
       </c>
       <c r="Y233">
-        <v>12930748884.325558</v>
+        <v>3324971887.9019275</v>
       </c>
       <c r="Z233">
-        <v>12996490339.998932</v>
+        <v>3247948430.966413</v>
       </c>
       <c r="AA233">
-        <v>11236663751.789093</v>
+        <v>3386822335.265934</v>
       </c>
       <c r="AB233">
-        <v>11059956718.040846</v>
+        <v>3170034420.208089</v>
       </c>
       <c r="AC233">
-        <v>13866879273.25372</v>
+        <v>3420551574.79035</v>
       </c>
       <c r="AD233">
-        <v>13915425157.88793</v>
+        <v>3470288377.712673</v>
       </c>
       <c r="AE233">
-        <v>11762229556.071028</v>
+        <v>3739121389.988775</v>
       </c>
       <c r="AF233">
-        <v>37010559681.39289</v>
+        <v>8700832333.485851</v>
       </c>
       <c r="AG233">
-        <v>39217020645.565544</v>
+        <v>9614168395.581907</v>
       </c>
       <c r="AH233">
-        <v>35293110809.82887</v>
+        <v>9804805186.440437</v>
       </c>
       <c r="AI233">
-        <v>39544533987.21268</v>
+        <v>10629961342.491798</v>
       </c>
       <c r="AJ233">
-        <v>40251533929.220314</v>
+        <v>2306238600.359647</v>
       </c>
       <c r="AK233">
-        <v>40850267806.69999</v>
+        <v>2273009080.455265</v>
       </c>
       <c r="AL233">
-        <v>51249147510.06376</v>
+        <v>2466095892.85915</v>
       </c>
       <c r="AM233">
-        <v>45233040114.52461</v>
+        <v>2348289010.0240626</v>
       </c>
       <c r="AN233">
-        <v>40071363341.105606</v>
+        <v>2529567531.478375</v>
       </c>
       <c r="AO233">
-        <v>39699428542.55712</v>
+        <v>2487765634.968074</v>
       </c>
       <c r="AP233">
-        <v>37741700154.10117</v>
+        <v>2503332283.3855023</v>
       </c>
       <c r="AQ233">
-        <v>39088615902.65651</v>
+        <v>2543506610.9214606</v>
       </c>
       <c r="AR233">
-        <v>42299679323.35677</v>
+        <v>2567935617.264929</v>
       </c>
       <c r="AS233">
-        <v>41911089076.52714</v>
+        <v>2591836957.923375</v>
       </c>
       <c r="AT233">
-        <v>42072002963.75538</v>
+        <v>2632517526.226531</v>
       </c>
       <c r="AU233">
-        <v>45899045007.43161</v>
+        <v>2670238340.1336336</v>
       </c>
       <c r="AV233">
-        <v>132350949245.98407</v>
+        <v>7045343573.674062</v>
       </c>
       <c r="AW233">
-        <v>125003831998.18735</v>
+        <v>7365622176.470511</v>
       </c>
       <c r="AX233">
-        <v>119129995380.11447</v>
+        <v>7614774511.571892</v>
       </c>
       <c r="AY233">
-        <v>129882137047.71413</v>
+        <v>7894592824.28354</v>
       </c>
     </row>
     <row r="234" spans="1:51" x14ac:dyDescent="0.25">
@@ -36887,154 +36935,154 @@
         <v>2021</v>
       </c>
       <c r="B234" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C234" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D234">
-        <v>-20180994995.4903</v>
+        <v>-2221042250.877388</v>
       </c>
       <c r="E234">
-        <v>-19641935360.02969</v>
+        <v>-3511794050.73164</v>
       </c>
       <c r="F234">
-        <v>-17095561562.44778</v>
+        <v>-3394739663.779358</v>
       </c>
       <c r="G234">
-        <v>-16100184152.95647</v>
+        <v>-3455479158.7444153</v>
       </c>
       <c r="H234">
-        <v>-18543612160.151863</v>
+        <v>-4122368316.24271</v>
       </c>
       <c r="I234">
-        <v>-19622463611.221992</v>
+        <v>-4717153801.763802</v>
       </c>
       <c r="J234">
-        <v>-18118557916.423054</v>
+        <v>-4242878056.54023</v>
       </c>
       <c r="K234">
-        <v>-19279180916.337368</v>
+        <v>-5185688035.787636</v>
       </c>
       <c r="L234">
-        <v>-18741526119.760677</v>
+        <v>-5303549311.004086</v>
       </c>
       <c r="M234">
-        <v>-16610447095.989868</v>
+        <v>-3751704842.0022125</v>
       </c>
       <c r="N234">
-        <v>-19377580108.91128</v>
+        <v>-5448579999.979176</v>
       </c>
       <c r="O234">
-        <v>-16329501541.279667</v>
+        <v>-4674431716.547352</v>
       </c>
       <c r="P234">
-        <v>-56918491917.96777</v>
+        <v>-9127575965.388386</v>
       </c>
       <c r="Q234">
-        <v>-54266259924.33033</v>
+        <v>-12295001276.750927</v>
       </c>
       <c r="R234">
-        <v>-56139264952.5211</v>
+        <v>-14732115403.331951</v>
       </c>
       <c r="S234">
-        <v>-52317528746.18082</v>
+        <v>-13874716558.52874</v>
       </c>
       <c r="T234">
-        <v>20262172751.713985</v>
+        <v>24274544405.161125</v>
       </c>
       <c r="U234">
-        <v>20463518600.25954</v>
+        <v>24115804300.49881</v>
       </c>
       <c r="V234">
-        <v>20148983349.325535</v>
+        <v>25147576635.832436</v>
       </c>
       <c r="W234">
-        <v>22183175989.119427</v>
+        <v>24545485044.33769</v>
       </c>
       <c r="X234">
-        <v>21997036528.963783</v>
+        <v>24726352314.550327</v>
       </c>
       <c r="Y234">
-        <v>22574321412.10914</v>
+        <v>25083510807.513767</v>
       </c>
       <c r="Z234">
-        <v>22696518532.78291</v>
+        <v>25826181109.188293</v>
       </c>
       <c r="AA234">
-        <v>23555895858.612324</v>
+        <v>24925667811.349987</v>
       </c>
       <c r="AB234">
-        <v>23335736584.199535</v>
+        <v>24100690222.678776</v>
       </c>
       <c r="AC234">
-        <v>24931632049.126564</v>
+        <v>27725585896.165398</v>
       </c>
       <c r="AD234">
-        <v>24386972889.069996</v>
+        <v>28407779633.19439</v>
       </c>
       <c r="AE234">
-        <v>25077994787.717243</v>
+        <v>28878914498.529015</v>
       </c>
       <c r="AF234">
-        <v>60874674701.29906</v>
+        <v>73537925341.49237</v>
       </c>
       <c r="AG234">
-        <v>66754533930.192345</v>
+        <v>74355348166.40178</v>
       </c>
       <c r="AH234">
-        <v>69588150975.59477</v>
+        <v>74852539143.21706</v>
       </c>
       <c r="AI234">
-        <v>74396599725.9138</v>
+        <v>85012280027.8888</v>
       </c>
       <c r="AJ234">
-        <v>40443167747.204285</v>
+        <v>26495586656.038513</v>
       </c>
       <c r="AK234">
-        <v>40105453960.28923</v>
+        <v>27627598351.23045</v>
       </c>
       <c r="AL234">
-        <v>37244544911.773315</v>
+        <v>28542316299.611794</v>
       </c>
       <c r="AM234">
-        <v>38283360142.0759</v>
+        <v>28000964203.082104</v>
       </c>
       <c r="AN234">
-        <v>40540648689.11565</v>
+        <v>28848720630.793037</v>
       </c>
       <c r="AO234">
-        <v>42196785023.33113</v>
+        <v>29800664609.27757</v>
       </c>
       <c r="AP234">
-        <v>40815076449.20596</v>
+        <v>30069059165.728523</v>
       </c>
       <c r="AQ234">
-        <v>42835076774.94969</v>
+        <v>30111355847.137623</v>
       </c>
       <c r="AR234">
-        <v>42077262703.96021</v>
+        <v>29404239533.68286</v>
       </c>
       <c r="AS234">
-        <v>41542079145.11643</v>
+        <v>31477290738.16761</v>
       </c>
       <c r="AT234">
-        <v>43764552997.98128</v>
+        <v>33856359633.173565</v>
       </c>
       <c r="AU234">
-        <v>41407496328.99691</v>
+        <v>33553346215.076366</v>
       </c>
       <c r="AV234">
-        <v>117793166619.26683</v>
+        <v>82665501306.88077</v>
       </c>
       <c r="AW234">
-        <v>121020793854.52267</v>
+        <v>86650349443.15271</v>
       </c>
       <c r="AX234">
-        <v>125727415928.11588</v>
+        <v>89584654546.54901</v>
       </c>
       <c r="AY234">
-        <v>126714128472.09464</v>
+        <v>98886996586.41754</v>
       </c>
     </row>
     <row r="235" spans="1:51" x14ac:dyDescent="0.25">
@@ -37042,154 +37090,154 @@
         <v>2021</v>
       </c>
       <c r="B235" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C235" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D235">
-        <v>-2314446153.3676777</v>
+        <v>-26170629383.08945</v>
       </c>
       <c r="E235">
-        <v>-2695683592.7687683</v>
+        <v>-29417112911.221043</v>
       </c>
       <c r="F235">
-        <v>-1459996126.6403203</v>
+        <v>-34722413989.749855</v>
       </c>
       <c r="G235">
-        <v>-1886801729.663569</v>
+        <v>-29188202282.539143</v>
       </c>
       <c r="H235">
-        <v>-1460093289.4552574</v>
+        <v>-26702026385.911743</v>
       </c>
       <c r="I235">
-        <v>-1904842816.0317054</v>
+        <v>-27169821122.64205</v>
       </c>
       <c r="J235">
-        <v>-2093748428.0298157</v>
+        <v>-25747245655.495377</v>
       </c>
       <c r="K235">
-        <v>-1339956294.9433346</v>
+        <v>-28888889866.037144</v>
       </c>
       <c r="L235">
-        <v>-1824581308.1305623</v>
+        <v>-31141906679.11815</v>
       </c>
       <c r="M235">
-        <v>-1383048877.9101696</v>
+        <v>-28654244079.010887</v>
       </c>
       <c r="N235">
-        <v>-1142214602.1056414</v>
+        <v>-30038105417.5733</v>
       </c>
       <c r="O235">
-        <v>-838559961.9531851</v>
+        <v>-35652605214.61181</v>
       </c>
       <c r="P235">
-        <v>-6470125872.776766</v>
+        <v>-90310156284.06035</v>
       </c>
       <c r="Q235">
-        <v>-5251737835.150532</v>
+        <v>-83060049791.09293</v>
       </c>
       <c r="R235">
-        <v>-5258286031.103712</v>
+        <v>-85778042200.65067</v>
       </c>
       <c r="S235">
-        <v>-3363823441.968996</v>
+        <v>-94344954711.19598</v>
       </c>
       <c r="T235">
-        <v>2107317711.7535045</v>
+        <v>14611866307.63203</v>
       </c>
       <c r="U235">
-        <v>2155489688.5529366</v>
+        <v>10463864213.678875</v>
       </c>
       <c r="V235">
-        <v>2267727657.599314</v>
+        <v>13065045635.088118</v>
       </c>
       <c r="W235">
-        <v>2227023032.674597</v>
+        <v>12808877726.997868</v>
       </c>
       <c r="X235">
-        <v>2581568007.274446</v>
+        <v>12614357573.224993</v>
       </c>
       <c r="Y235">
-        <v>2384895676.1244226</v>
+        <v>12379876084.350473</v>
       </c>
       <c r="Z235">
-        <v>2360150904.054722</v>
+        <v>12309813885.441172</v>
       </c>
       <c r="AA235">
-        <v>2603212651.43527</v>
+        <v>11349776927.011143</v>
       </c>
       <c r="AB235">
-        <v>2622119278.3132415</v>
+        <v>11284377829.916525</v>
       </c>
       <c r="AC235">
-        <v>2854721967.0658183</v>
+        <v>14524032058.755152</v>
       </c>
       <c r="AD235">
-        <v>2784334323.484498</v>
+        <v>13840551049.768764</v>
       </c>
       <c r="AE235">
-        <v>3041275728.667233</v>
+        <v>12189733887.134872</v>
       </c>
       <c r="AF235">
-        <v>6530535057.905756</v>
+        <v>38140776156.399025</v>
       </c>
       <c r="AG235">
-        <v>7193486716.073465</v>
+        <v>37803111384.57333</v>
       </c>
       <c r="AH235">
-        <v>7585482833.803234</v>
+        <v>34943968642.36884</v>
       </c>
       <c r="AI235">
-        <v>8680332019.217548</v>
+        <v>40554316995.65879</v>
       </c>
       <c r="AJ235">
-        <v>4421763865.121182</v>
+        <v>40782495690.72148</v>
       </c>
       <c r="AK235">
-        <v>4851173281.321705</v>
+        <v>39880977124.89992</v>
       </c>
       <c r="AL235">
-        <v>3727723784.2396345</v>
+        <v>47787459624.837975</v>
       </c>
       <c r="AM235">
-        <v>4113824762.3381658</v>
+        <v>41997080009.53701</v>
       </c>
       <c r="AN235">
-        <v>4041661296.7297034</v>
+        <v>39316383959.136734</v>
       </c>
       <c r="AO235">
-        <v>4289738492.156128</v>
+        <v>39549697206.99252</v>
       </c>
       <c r="AP235">
-        <v>4453899332.0845375</v>
+        <v>38057059540.93655</v>
       </c>
       <c r="AQ235">
-        <v>3943168946.3786044</v>
+        <v>40238666793.04829</v>
       </c>
       <c r="AR235">
-        <v>4446700586.443804</v>
+        <v>42426284509.034676</v>
       </c>
       <c r="AS235">
-        <v>4237770844.975988</v>
+        <v>43178276137.76604</v>
       </c>
       <c r="AT235">
-        <v>3926548925.5901394</v>
+        <v>43878656467.342064</v>
       </c>
       <c r="AU235">
-        <v>3879835690.620418</v>
+        <v>47842339101.74668</v>
       </c>
       <c r="AV235">
-        <v>13000660930.682522</v>
+        <v>128450932440.45938</v>
       </c>
       <c r="AW235">
-        <v>12445224551.223997</v>
+        <v>120863161175.66626</v>
       </c>
       <c r="AX235">
-        <v>12843768864.906946</v>
+        <v>120722010843.0195</v>
       </c>
       <c r="AY235">
-        <v>12044155461.186546</v>
+        <v>134899271706.85477</v>
       </c>
     </row>
     <row r="236" spans="1:51" x14ac:dyDescent="0.25">
@@ -37197,154 +37245,154 @@
         <v>2021</v>
       </c>
       <c r="B236" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C236" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D236">
-        <v>-7231078769.68168</v>
+        <v>-19532579163.21265</v>
       </c>
       <c r="E236">
-        <v>-5422180293.284118</v>
+        <v>-19350387493.01777</v>
       </c>
       <c r="F236">
-        <v>-5552548918.568644</v>
+        <v>-17008989113.840366</v>
       </c>
       <c r="G236">
-        <v>-5120923507.123452</v>
+        <v>-17178151899.565277</v>
       </c>
       <c r="H236">
-        <v>-6218017235.073996</v>
+        <v>-17576064192.11642</v>
       </c>
       <c r="I236">
-        <v>-6313222336.64458</v>
+        <v>-19476332399.165894</v>
       </c>
       <c r="J236">
-        <v>-5580142819.118941</v>
+        <v>-17898655516.24597</v>
       </c>
       <c r="K236">
-        <v>-5816337830.418404</v>
+        <v>-17999833968.5841</v>
       </c>
       <c r="L236">
-        <v>-5656779313.340953</v>
+        <v>-18772521991.05167</v>
       </c>
       <c r="M236">
-        <v>-5737854292.696529</v>
+        <v>-17155458287.377438</v>
       </c>
       <c r="N236">
-        <v>-6103281112.481788</v>
+        <v>-19533529406.792225</v>
       </c>
       <c r="O236">
-        <v>-5297717322.5669155</v>
+        <v>-17260985164.03007</v>
       </c>
       <c r="P236">
-        <v>-18205807981.53444</v>
+        <v>-55891955770.070786</v>
       </c>
       <c r="Q236">
-        <v>-17652163078.84203</v>
+        <v>-54230548490.847595</v>
       </c>
       <c r="R236">
-        <v>-17053259962.8783</v>
+        <v>-54671011475.881744</v>
       </c>
       <c r="S236">
-        <v>-17138852727.745234</v>
+        <v>-53949972858.19974</v>
       </c>
       <c r="T236">
-        <v>4754742220.664912</v>
+        <v>20355689228.315075</v>
       </c>
       <c r="U236">
-        <v>5028681361.631085</v>
+        <v>20550662782.19816</v>
       </c>
       <c r="V236">
-        <v>4964998376.594126</v>
+        <v>20675482904.094685</v>
       </c>
       <c r="W236">
-        <v>5633635784.885289</v>
+        <v>21954147731.28724</v>
       </c>
       <c r="X236">
-        <v>5404030324.524288</v>
+        <v>22356513646.592396</v>
       </c>
       <c r="Y236">
-        <v>5924554741.119901</v>
+        <v>22686922365.384018</v>
       </c>
       <c r="Z236">
-        <v>5555671531.12614</v>
+        <v>23027528860.067383</v>
       </c>
       <c r="AA236">
-        <v>5703341760.627987</v>
+        <v>23715178656.86609</v>
       </c>
       <c r="AB236">
-        <v>5194835091.405881</v>
+        <v>22973307465.62704</v>
       </c>
       <c r="AC236">
-        <v>5734383266.393543</v>
+        <v>24301232555.662426</v>
       </c>
       <c r="AD236">
-        <v>5565060561.1365385</v>
+        <v>24495186464.31766</v>
       </c>
       <c r="AE236">
-        <v>5710234452.890312</v>
+        <v>24608314599.587864</v>
       </c>
       <c r="AF236">
-        <v>14748421958.890123</v>
+        <v>61581834914.60791</v>
       </c>
       <c r="AG236">
-        <v>16962220850.529476</v>
+        <v>66997583743.26366</v>
       </c>
       <c r="AH236">
-        <v>16453848383.160007</v>
+        <v>69716014982.56052</v>
       </c>
       <c r="AI236">
-        <v>17009678280.420395</v>
+        <v>73404733619.56795</v>
       </c>
       <c r="AJ236">
-        <v>11985820990.346592</v>
+        <v>39888268391.527725</v>
       </c>
       <c r="AK236">
-        <v>10450861654.915203</v>
+        <v>39901050275.21593</v>
       </c>
       <c r="AL236">
-        <v>10517547295.16277</v>
+        <v>37684472017.93505</v>
       </c>
       <c r="AM236">
-        <v>10754559292.008741</v>
+        <v>39132299630.852516</v>
       </c>
       <c r="AN236">
-        <v>11622047559.598284</v>
+        <v>39932577838.70882</v>
       </c>
       <c r="AO236">
-        <v>12237777077.76448</v>
+        <v>42163254764.54991</v>
       </c>
       <c r="AP236">
-        <v>11135814350.24508</v>
+        <v>40926184376.313354</v>
       </c>
       <c r="AQ236">
-        <v>11519679591.04639</v>
+        <v>41715012625.45019</v>
       </c>
       <c r="AR236">
-        <v>10851614404.746834</v>
+        <v>41745829456.67871</v>
       </c>
       <c r="AS236">
-        <v>11472237559.090073</v>
+        <v>41456690843.03986</v>
       </c>
       <c r="AT236">
-        <v>11668341673.618326</v>
+        <v>44028715871.109886</v>
       </c>
       <c r="AU236">
-        <v>11007951775.457228</v>
+        <v>41869299763.617935</v>
       </c>
       <c r="AV236">
-        <v>32954229940.424564</v>
+        <v>117473790684.67871</v>
       </c>
       <c r="AW236">
-        <v>34614383929.371506</v>
+        <v>121228132234.11125</v>
       </c>
       <c r="AX236">
-        <v>33507108346.038307</v>
+        <v>124387026458.44226</v>
       </c>
       <c r="AY236">
-        <v>34148531008.165627</v>
+        <v>127354706477.76768</v>
       </c>
     </row>
     <row r="237" spans="1:51" x14ac:dyDescent="0.25">
@@ -37352,154 +37400,154 @@
         <v>2021</v>
       </c>
       <c r="B237" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C237" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D237">
-        <v>2359063613.93336</v>
+        <v>-2152479533.496061</v>
       </c>
       <c r="E237">
-        <v>1201897424.346524</v>
+        <v>-2591105064.4744625</v>
       </c>
       <c r="F237">
-        <v>2858770498.175994</v>
+        <v>-1540428713.6242518</v>
       </c>
       <c r="G237">
-        <v>2998551335.4717197</v>
+        <v>-1882514996.26693</v>
       </c>
       <c r="H237">
-        <v>2703939400.980447</v>
+        <v>-1566281022.0220332</v>
       </c>
       <c r="I237">
-        <v>1706280495.7382243</v>
+        <v>-1820109340.3674073</v>
       </c>
       <c r="J237">
-        <v>2273012097.3586307</v>
+        <v>-1802910873.4776783</v>
       </c>
       <c r="K237">
-        <v>2188156630.5033083</v>
+        <v>-1368418757.775855</v>
       </c>
       <c r="L237">
-        <v>1498780023.0524192</v>
+        <v>-1868398332.8003178</v>
       </c>
       <c r="M237">
-        <v>2552355701.0300283</v>
+        <v>-1283378375.8297787</v>
       </c>
       <c r="N237">
-        <v>1611817971.6114376</v>
+        <v>-1230892883.551392</v>
       </c>
       <c r="O237">
-        <v>1880091899.797906</v>
+        <v>-1103576968.3138337</v>
       </c>
       <c r="P237">
-        <v>6419731536.455878</v>
+        <v>-6284013311.594776</v>
       </c>
       <c r="Q237">
-        <v>7408771232.190391</v>
+        <v>-5268905358.65637</v>
       </c>
       <c r="R237">
-        <v>5959948750.914358</v>
+        <v>-5039727964.053851</v>
       </c>
       <c r="S237">
-        <v>6044265572.439372</v>
+        <v>-3617848227.6950045</v>
       </c>
       <c r="T237">
-        <v>2611611219.411398</v>
+        <v>2091278014.3620815</v>
       </c>
       <c r="U237">
-        <v>1662959241.0605772</v>
+        <v>2129356872.19222</v>
       </c>
       <c r="V237">
-        <v>3045947740.5354424</v>
+        <v>2216717735.5535016</v>
       </c>
       <c r="W237">
-        <v>3350867030.8805966</v>
+        <v>2197566775.326973</v>
       </c>
       <c r="X237">
-        <v>2918335750.3180313</v>
+        <v>2531917709.5243273</v>
       </c>
       <c r="Y237">
-        <v>2112783630.702968</v>
+        <v>2445973117.882759</v>
       </c>
       <c r="Z237">
-        <v>2648024734.6116595</v>
+        <v>2434472048.554056</v>
       </c>
       <c r="AA237">
-        <v>2469351741.543137</v>
+        <v>2685551488.311792</v>
       </c>
       <c r="AB237">
-        <v>1755944351.2619774</v>
+        <v>2670766473.9001045</v>
       </c>
       <c r="AC237">
-        <v>2846085594.031812</v>
+        <v>2790207122.264893</v>
       </c>
       <c r="AD237">
-        <v>2132968934.559467</v>
+        <v>2759124594.7884374</v>
       </c>
       <c r="AE237">
-        <v>2403173413.082933</v>
+        <v>2940353674.3388515</v>
       </c>
       <c r="AF237">
-        <v>7320518201.007418</v>
+        <v>6437352622.107803</v>
       </c>
       <c r="AG237">
-        <v>8381986411.901595</v>
+        <v>7175457602.734059</v>
       </c>
       <c r="AH237">
-        <v>6873320827.416774</v>
+        <v>7790790010.765953</v>
       </c>
       <c r="AI237">
-        <v>7382227941.6742115</v>
+        <v>8489685391.392181</v>
       </c>
       <c r="AJ237">
-        <v>252547605.47803777</v>
+        <v>4243757547.8581424</v>
       </c>
       <c r="AK237">
-        <v>461061816.7140532</v>
+        <v>4720461936.666682</v>
       </c>
       <c r="AL237">
-        <v>187177242.35944822</v>
+        <v>3757146449.1777534</v>
       </c>
       <c r="AM237">
-        <v>352315695.40887666</v>
+        <v>4080081771.593903</v>
       </c>
       <c r="AN237">
-        <v>214396349.3375847</v>
+        <v>4098198731.5463605</v>
       </c>
       <c r="AO237">
-        <v>406503134.9647436</v>
+        <v>4266082458.2501664</v>
       </c>
       <c r="AP237">
-        <v>375012637.25302887</v>
+        <v>4237382922.0317345</v>
       </c>
       <c r="AQ237">
-        <v>281195111.03982884</v>
+        <v>4053970246.087647</v>
       </c>
       <c r="AR237">
-        <v>257164328.20955816</v>
+        <v>4539164806.700422</v>
       </c>
       <c r="AS237">
-        <v>293729893.00178397</v>
+        <v>4073585498.0946717</v>
       </c>
       <c r="AT237">
-        <v>521150962.9480296</v>
+        <v>3990017478.3398294</v>
       </c>
       <c r="AU237">
-        <v>523081513.2850271</v>
+        <v>4043930642.652685</v>
       </c>
       <c r="AV237">
-        <v>900786664.5515392</v>
+        <v>12721365933.702578</v>
       </c>
       <c r="AW237">
-        <v>973215179.711205</v>
+        <v>12444362961.39043</v>
       </c>
       <c r="AX237">
-        <v>913372076.5024158</v>
+        <v>12830517974.819803</v>
       </c>
       <c r="AY237">
-        <v>1337962369.2348406</v>
+        <v>12107533619.087187</v>
       </c>
     </row>
     <row r="238" spans="1:51" x14ac:dyDescent="0.25">
@@ -37507,154 +37555,154 @@
         <v>2021</v>
       </c>
       <c r="B238" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C238" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D238">
-        <v>-2195529140.720709</v>
+        <v>-6871315328.766323</v>
       </c>
       <c r="E238">
-        <v>-1714793038.4653378</v>
+        <v>-5378344959.498462</v>
       </c>
       <c r="F238">
-        <v>-2312365022.4424076</v>
+        <v>-5415182075.412269</v>
       </c>
       <c r="G238">
-        <v>-2600482931.604385</v>
+        <v>-5142673900.546907</v>
       </c>
       <c r="H238">
-        <v>-2491874856.5322948</v>
+        <v>-5854714984.831124</v>
       </c>
       <c r="I238">
-        <v>-3525496597.1580205</v>
+        <v>-5826300736.2572155</v>
       </c>
       <c r="J238">
-        <v>-2801782391.693633</v>
+        <v>-5424405315.595483</v>
       </c>
       <c r="K238">
-        <v>-2971614993.807372</v>
+        <v>-6122042790.3308325</v>
       </c>
       <c r="L238">
-        <v>-2545117936.805097</v>
+        <v>-5975449986.638875</v>
       </c>
       <c r="M238">
-        <v>-3055924649.4966464</v>
+        <v>-5945726390.390994</v>
       </c>
       <c r="N238">
-        <v>-3002736541.038016</v>
+        <v>-6254905944.360167</v>
       </c>
       <c r="O238">
-        <v>-3913103983.2360744</v>
+        <v>-5671942618.371362</v>
       </c>
       <c r="P238">
-        <v>-6222687201.628454</v>
+        <v>-17664842363.677055</v>
       </c>
       <c r="Q238">
-        <v>-8617854385.2947</v>
+        <v>-16823689621.635248</v>
       </c>
       <c r="R238">
-        <v>-8318515322.306103</v>
+        <v>-17521898092.56519</v>
       </c>
       <c r="S238">
-        <v>-9971765173.770737</v>
+        <v>-17872574953.12252</v>
       </c>
       <c r="T238">
-        <v>3053921648.6485863</v>
+        <v>4965126720.1922245</v>
       </c>
       <c r="U238">
-        <v>3040964972.291068</v>
+        <v>5214771208.602647</v>
       </c>
       <c r="V238">
-        <v>3156420178.2740154</v>
+        <v>5124092413.728124</v>
       </c>
       <c r="W238">
-        <v>3035938897.723783</v>
+        <v>5532140095.165579</v>
       </c>
       <c r="X238">
-        <v>3239010149.834474</v>
+        <v>5412452360.792521</v>
       </c>
       <c r="Y238">
-        <v>2925777063.168444</v>
+        <v>5873355181.173992</v>
       </c>
       <c r="Z238">
-        <v>3429901335.0289345</v>
+        <v>5496357274.416633</v>
       </c>
       <c r="AA238">
-        <v>3578924971.0522213</v>
+        <v>5615587402.33406</v>
       </c>
       <c r="AB238">
-        <v>3558166378.5638995</v>
+        <v>5227655827.487109</v>
       </c>
       <c r="AC238">
-        <v>3702120294.521168</v>
+        <v>5677261880.64639</v>
       </c>
       <c r="AD238">
-        <v>3716607250.209476</v>
+        <v>5554662959.221418</v>
       </c>
       <c r="AE238">
-        <v>3692331279.6839285</v>
+        <v>5639054730.239303</v>
       </c>
       <c r="AF238">
-        <v>9251306799.213669</v>
+        <v>15303990342.522995</v>
       </c>
       <c r="AG238">
-        <v>9200726110.726702</v>
+        <v>16817947637.132092</v>
       </c>
       <c r="AH238">
-        <v>10566992684.645056</v>
+        <v>16339600504.2378</v>
       </c>
       <c r="AI238">
-        <v>11111058824.414574</v>
+        <v>16870979570.107113</v>
       </c>
       <c r="AJ238">
-        <v>5249450789.369295</v>
+        <v>11836442048.958548</v>
       </c>
       <c r="AK238">
-        <v>4755758010.756406</v>
+        <v>10593116168.101109</v>
       </c>
       <c r="AL238">
-        <v>5468785200.716423</v>
+        <v>10539274489.140392</v>
       </c>
       <c r="AM238">
-        <v>5636421829.328168</v>
+        <v>10674813995.712486</v>
       </c>
       <c r="AN238">
-        <v>5730885006.366769</v>
+        <v>11267167345.623646</v>
       </c>
       <c r="AO238">
-        <v>6451273660.326465</v>
+        <v>11699655917.431208</v>
       </c>
       <c r="AP238">
-        <v>6231683726.722568</v>
+        <v>10920762590.012115</v>
       </c>
       <c r="AQ238">
-        <v>6550539964.859593</v>
+        <v>11737630192.664892</v>
       </c>
       <c r="AR238">
-        <v>6103284315.368997</v>
+        <v>11203105814.125984</v>
       </c>
       <c r="AS238">
-        <v>6758044944.017815</v>
+        <v>11622988271.037384</v>
       </c>
       <c r="AT238">
-        <v>6719343791.247492</v>
+        <v>11809568903.581585</v>
       </c>
       <c r="AU238">
-        <v>7605435262.920003</v>
+        <v>11310997348.610664</v>
       </c>
       <c r="AV238">
-        <v>15473994000.842125</v>
+        <v>32968832706.200047</v>
       </c>
       <c r="AW238">
-        <v>17818580496.0214</v>
+        <v>33641637258.76734</v>
       </c>
       <c r="AX238">
-        <v>18885508006.951157</v>
+        <v>33861498596.802994</v>
       </c>
       <c r="AY238">
-        <v>21082823998.18531</v>
+        <v>34743554523.22963</v>
       </c>
     </row>
     <row r="239" spans="1:51" x14ac:dyDescent="0.25">
@@ -37662,154 +37710,154 @@
         <v>2021</v>
       </c>
       <c r="B239" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C239" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D239">
-        <v>-2940225000.3822656</v>
+        <v>2332860414.5083237</v>
       </c>
       <c r="E239">
-        <v>-3271222169.4978123</v>
+        <v>1322429756.8430722</v>
       </c>
       <c r="F239">
-        <v>-2921617765.2303476</v>
+        <v>2704240387.0982094</v>
       </c>
       <c r="G239">
-        <v>-2862567164.4773893</v>
+        <v>2988151974.0534034</v>
       </c>
       <c r="H239">
-        <v>-3201988050.6319566</v>
+        <v>2544118468.6900406</v>
       </c>
       <c r="I239">
-        <v>-3711177511.8095818</v>
+        <v>1854674456.8622441</v>
       </c>
       <c r="J239">
-        <v>-3518333475.388591</v>
+        <v>2302614814.925935</v>
       </c>
       <c r="K239">
-        <v>-3115569061.2514467</v>
+        <v>2202965605.348596</v>
       </c>
       <c r="L239">
-        <v>-3556586781.494007</v>
+        <v>1614142212.839842</v>
       </c>
       <c r="M239">
-        <v>-3430101034.8626313</v>
+        <v>2497938840.119495</v>
       </c>
       <c r="N239">
-        <v>-3654798517.6926227</v>
+        <v>1632254446.5986218</v>
       </c>
       <c r="O239">
-        <v>-3097440703.2813416</v>
+        <v>1781291379.112216</v>
       </c>
       <c r="P239">
-        <v>-9133064935.110424</v>
+        <v>6359530558.449605</v>
       </c>
       <c r="Q239">
-        <v>-9775732726.918928</v>
+        <v>7386944899.605688</v>
       </c>
       <c r="R239">
-        <v>-10190489318.134045</v>
+        <v>6119722633.114372</v>
       </c>
       <c r="S239">
-        <v>-10182340255.836596</v>
+        <v>5911484665.830333</v>
       </c>
       <c r="T239">
-        <v>1937069503.1650977</v>
+        <v>2618434487.7766285</v>
       </c>
       <c r="U239">
-        <v>1546994522.4420574</v>
+        <v>1679388221.657193</v>
       </c>
       <c r="V239">
-        <v>1657715785.6828318</v>
+        <v>2931622505.8712416</v>
       </c>
       <c r="W239">
-        <v>1915226044.842169</v>
+        <v>3284167541.735643</v>
       </c>
       <c r="X239">
-        <v>1990088876.8213286</v>
+        <v>2835713979.300557</v>
       </c>
       <c r="Y239">
-        <v>1828701855.8479452</v>
+        <v>2182681595.8060837</v>
       </c>
       <c r="Z239">
-        <v>1771196880.5071278</v>
+        <v>2632471304.107213</v>
       </c>
       <c r="AA239">
-        <v>1986643928.293874</v>
+        <v>2494167392.3372917</v>
       </c>
       <c r="AB239">
-        <v>1509696644.6386845</v>
+        <v>1900541993.0848663</v>
       </c>
       <c r="AC239">
-        <v>1876054233.1727262</v>
+        <v>2799125680.247404</v>
       </c>
       <c r="AD239">
-        <v>1758312105.5667539</v>
+        <v>2191345638.8622093</v>
       </c>
       <c r="AE239">
-        <v>1935620433.0194032</v>
+        <v>2344361312.213667</v>
       </c>
       <c r="AF239">
-        <v>5141779811.289987</v>
+        <v>7229445215.305063</v>
       </c>
       <c r="AG239">
-        <v>5734016777.511443</v>
+        <v>8302563116.842283</v>
       </c>
       <c r="AH239">
-        <v>5267537453.439686</v>
+        <v>7027180689.529371</v>
       </c>
       <c r="AI239">
-        <v>5569986771.758883</v>
+        <v>7334832631.32328</v>
       </c>
       <c r="AJ239">
-        <v>4877294503.547363</v>
+        <v>285574073.2683048</v>
       </c>
       <c r="AK239">
-        <v>4818216691.93987</v>
+        <v>356958464.81412077</v>
       </c>
       <c r="AL239">
-        <v>4579333550.913179</v>
+        <v>227382118.77303207</v>
       </c>
       <c r="AM239">
-        <v>4777793209.319558</v>
+        <v>296015567.6822395</v>
       </c>
       <c r="AN239">
-        <v>5192076927.453285</v>
+        <v>291595510.6105166</v>
       </c>
       <c r="AO239">
-        <v>5539879367.657527</v>
+        <v>328007138.94383967</v>
       </c>
       <c r="AP239">
-        <v>5289530355.895719</v>
+        <v>329856489.1812784</v>
       </c>
       <c r="AQ239">
-        <v>5102212989.5453205</v>
+        <v>291201786.9886957</v>
       </c>
       <c r="AR239">
-        <v>5066283426.132691</v>
+        <v>286399780.24502426</v>
       </c>
       <c r="AS239">
-        <v>5306155268.035357</v>
+        <v>301186840.12790936</v>
       </c>
       <c r="AT239">
-        <v>5413110623.259377</v>
+        <v>559091192.2635874</v>
       </c>
       <c r="AU239">
-        <v>5033061136.300745</v>
+        <v>563069933.1014509</v>
       </c>
       <c r="AV239">
-        <v>14274844746.400412</v>
+        <v>869914656.8554577</v>
       </c>
       <c r="AW239">
-        <v>15509749504.43037</v>
+        <v>915618217.2365957</v>
       </c>
       <c r="AX239">
-        <v>15458026771.57373</v>
+        <v>907458056.4149983</v>
       </c>
       <c r="AY239">
-        <v>15752327027.59548</v>
+        <v>1423347965.4929476</v>
       </c>
     </row>
     <row r="240" spans="1:51" x14ac:dyDescent="0.25">
@@ -37817,154 +37865,154 @@
         <v>2021</v>
       </c>
       <c r="B240" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C240" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D240">
-        <v>-5225431276.612627</v>
+        <v>-2328932453.4598556</v>
       </c>
       <c r="E240">
-        <v>-4497809449.266417</v>
+        <v>-1855905577.8756971</v>
       </c>
       <c r="F240">
-        <v>-5294317774.904231</v>
+        <v>-2374408134.5996757</v>
       </c>
       <c r="G240">
-        <v>-5436460022.04857</v>
+        <v>-2665008311.064435</v>
       </c>
       <c r="H240">
-        <v>-5867927498.6617775</v>
+        <v>-2527011825.976708</v>
       </c>
       <c r="I240">
-        <v>-4947792334.38021</v>
+        <v>-3144264555.989454</v>
       </c>
       <c r="J240">
-        <v>-6022905695.914829</v>
+        <v>-2850321057.811473</v>
       </c>
       <c r="K240">
-        <v>-5558498820.643758</v>
+        <v>-2884843543.727187</v>
       </c>
       <c r="L240">
-        <v>-5002209092.958356</v>
+        <v>-2683526548.755237</v>
       </c>
       <c r="M240">
-        <v>-3650658015.1542425</v>
+        <v>-2920732668.1083155</v>
       </c>
       <c r="N240">
-        <v>-3639367122.482938</v>
+        <v>-3140539627.7581935</v>
       </c>
       <c r="O240">
-        <v>-5019503501.972032</v>
+        <v>-3744926449.8737664</v>
       </c>
       <c r="P240">
-        <v>-15017558500.783276</v>
+        <v>-6559246165.935228</v>
       </c>
       <c r="Q240">
-        <v>-16252179855.090557</v>
+        <v>-8336284693.030598</v>
       </c>
       <c r="R240">
-        <v>-16583613609.516941</v>
+        <v>-8418691150.293898</v>
       </c>
       <c r="S240">
-        <v>-12309528639.609211</v>
+        <v>-9806198745.740274</v>
       </c>
       <c r="T240">
-        <v>6258768755.930103</v>
+        <v>2890568245.330874</v>
       </c>
       <c r="U240">
-        <v>5567508996.306181</v>
+        <v>3039995232.456712</v>
       </c>
       <c r="V240">
-        <v>5892482606.568282</v>
+        <v>3150780147.073321</v>
       </c>
       <c r="W240">
-        <v>6585406346.776233</v>
+        <v>3002063904.417078</v>
       </c>
       <c r="X240">
-        <v>6409576629.36451</v>
+        <v>3289273592.1456895</v>
       </c>
       <c r="Y240">
-        <v>6420392985.095269</v>
+        <v>3221606420.9639707</v>
       </c>
       <c r="Z240">
-        <v>5904175071.794527</v>
+        <v>3393201611.362587</v>
       </c>
       <c r="AA240">
-        <v>6262117839.712529</v>
+        <v>3558680396.7517815</v>
       </c>
       <c r="AB240">
-        <v>6047910121.354335</v>
+        <v>3451279720.1524186</v>
       </c>
       <c r="AC240">
-        <v>6658351682.522637</v>
+        <v>3739264153.30581</v>
       </c>
       <c r="AD240">
-        <v>6819904146.166772</v>
+        <v>3640496416.4831424</v>
       </c>
       <c r="AE240">
-        <v>6143597114.408622</v>
+        <v>3674963452.556623</v>
       </c>
       <c r="AF240">
-        <v>17718760358.804565</v>
+        <v>9081343624.860907</v>
       </c>
       <c r="AG240">
-        <v>19415375961.23601</v>
+        <v>9512943917.526737</v>
       </c>
       <c r="AH240">
-        <v>18214203032.861393</v>
+        <v>10403161728.266787</v>
       </c>
       <c r="AI240">
-        <v>19621852943.09803</v>
+        <v>11054724022.345575</v>
       </c>
       <c r="AJ240">
-        <v>11484200032.54273</v>
+        <v>5219500698.7907295</v>
       </c>
       <c r="AK240">
-        <v>10065318445.572598</v>
+        <v>4895900810.332409</v>
       </c>
       <c r="AL240">
-        <v>11186800381.472513</v>
+        <v>5525188281.6729965</v>
       </c>
       <c r="AM240">
-        <v>12021866368.824802</v>
+        <v>5667072215.481513</v>
       </c>
       <c r="AN240">
-        <v>12277504128.026287</v>
+        <v>5816285418.122397</v>
       </c>
       <c r="AO240">
-        <v>11368185319.47548</v>
+        <v>6365870976.953424</v>
       </c>
       <c r="AP240">
-        <v>11927080767.709356</v>
+        <v>6243522669.17406</v>
       </c>
       <c r="AQ240">
-        <v>11820616660.356287</v>
+        <v>6443523940.478969</v>
       </c>
       <c r="AR240">
-        <v>11050119214.31269</v>
+        <v>6134806268.907656</v>
       </c>
       <c r="AS240">
-        <v>10309009697.67688</v>
+        <v>6659996821.414125</v>
       </c>
       <c r="AT240">
-        <v>10459271268.64971</v>
+        <v>6781036044.241336</v>
       </c>
       <c r="AU240">
-        <v>11163100616.380653</v>
+        <v>7419889902.430389</v>
       </c>
       <c r="AV240">
-        <v>32736318859.587837</v>
+        <v>15640589790.796135</v>
       </c>
       <c r="AW240">
-        <v>35667555816.32657</v>
+        <v>17849228610.557335</v>
       </c>
       <c r="AX240">
-        <v>34797816642.378334</v>
+        <v>18821852878.560684</v>
       </c>
       <c r="AY240">
-        <v>31931381582.707245</v>
+        <v>20860922768.08585</v>
       </c>
     </row>
     <row r="241" spans="1:51" x14ac:dyDescent="0.25">
@@ -37972,154 +38020,154 @@
         <v>2021</v>
       </c>
       <c r="B241" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C241" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D241">
-        <v>-955802063.0478821</v>
+        <v>-4225605164</v>
       </c>
       <c r="E241">
-        <v>-2218386723.614011</v>
+        <v>-5408341781</v>
       </c>
       <c r="F241">
-        <v>-2034543298.4211903</v>
+        <v>-4952814384</v>
       </c>
       <c r="G241">
-        <v>-1186208410.5073528</v>
+        <v>-4618522958</v>
       </c>
       <c r="H241">
-        <v>-2272233308.47797</v>
+        <v>-4838978062</v>
       </c>
       <c r="I241">
-        <v>-2830254104.0679913</v>
+        <v>-5012645323</v>
       </c>
       <c r="J241">
-        <v>-2154794054.845065</v>
+        <v>-4078890574</v>
       </c>
       <c r="K241">
-        <v>-3127704904.8373213</v>
+        <v>-5073963404</v>
       </c>
       <c r="L241">
-        <v>-3805318590.864744</v>
+        <v>-5639123754</v>
       </c>
       <c r="M241">
-        <v>-2681844192.888981</v>
+        <v>-5386215882</v>
       </c>
       <c r="N241">
-        <v>-2245916229.257661</v>
+        <v>-5920556417</v>
       </c>
       <c r="O241">
-        <v>-3669732647.1698074</v>
+        <v>-4756893057</v>
       </c>
       <c r="P241">
-        <v>-5208732085.083083</v>
+        <v>-14586761329</v>
       </c>
       <c r="Q241">
-        <v>-6288695823.053314</v>
+        <v>-14470146343</v>
       </c>
       <c r="R241">
-        <v>-9087817550.54713</v>
+        <v>-14791977732</v>
       </c>
       <c r="S241">
-        <v>-8597493069.316448</v>
+        <v>-16063665356</v>
       </c>
       <c r="T241">
-        <v>5607194929.212897</v>
+        <v>898927270</v>
       </c>
       <c r="U241">
-        <v>4764204075.503371</v>
+        <v>941133468</v>
       </c>
       <c r="V241">
-        <v>5324873778.035592</v>
+        <v>1062475824</v>
       </c>
       <c r="W241">
-        <v>6419748206.547707</v>
+        <v>957885586</v>
       </c>
       <c r="X241">
-        <v>5593180313.207043</v>
+        <v>883207825</v>
       </c>
       <c r="Y241">
-        <v>5525647735.43073</v>
+        <v>1073894941</v>
       </c>
       <c r="Z241">
-        <v>5930805785.170439</v>
+        <v>1287189751</v>
       </c>
       <c r="AA241">
-        <v>5397533129.750613</v>
+        <v>1219939629</v>
       </c>
       <c r="AB241">
-        <v>5569290954.542517</v>
+        <v>1250801823</v>
       </c>
       <c r="AC241">
-        <v>5082583047.049811</v>
+        <v>1397763527</v>
       </c>
       <c r="AD241">
-        <v>5732687899.912734</v>
+        <v>1592385174</v>
       </c>
       <c r="AE241">
-        <v>4824050738.636556</v>
+        <v>1218954978</v>
       </c>
       <c r="AF241">
-        <v>15696272782.751862</v>
+        <v>2902536562</v>
       </c>
       <c r="AG241">
-        <v>17538576255.18548</v>
+        <v>2914988352</v>
       </c>
       <c r="AH241">
-        <v>16897629869.463568</v>
+        <v>3757931203</v>
       </c>
       <c r="AI241">
-        <v>15639321685.599102</v>
+        <v>4209103679</v>
       </c>
       <c r="AJ241">
-        <v>6562996992.260779</v>
+        <v>5124532434</v>
       </c>
       <c r="AK241">
-        <v>6982590799.117382</v>
+        <v>6349475249</v>
       </c>
       <c r="AL241">
-        <v>7359417076.456782</v>
+        <v>6015290208</v>
       </c>
       <c r="AM241">
-        <v>7605956617.055059</v>
+        <v>5576408544</v>
       </c>
       <c r="AN241">
-        <v>7865413621.685013</v>
+        <v>5722185887</v>
       </c>
       <c r="AO241">
-        <v>8355901839.498721</v>
+        <v>6086540264</v>
       </c>
       <c r="AP241">
-        <v>8085599840.015504</v>
+        <v>5366080325</v>
       </c>
       <c r="AQ241">
-        <v>8525238034.5879345</v>
+        <v>6293903033</v>
       </c>
       <c r="AR241">
-        <v>9374609545.40726</v>
+        <v>6889925577</v>
       </c>
       <c r="AS241">
-        <v>7764427239.938792</v>
+        <v>6783979409</v>
       </c>
       <c r="AT241">
-        <v>7978604129.170395</v>
+        <v>7512941591</v>
       </c>
       <c r="AU241">
-        <v>8493783385.806363</v>
+        <v>5975848035</v>
       </c>
       <c r="AV241">
-        <v>20905004867.834946</v>
+        <v>17489297891</v>
       </c>
       <c r="AW241">
-        <v>23827272078.238792</v>
+        <v>17385134695</v>
       </c>
       <c r="AX241">
-        <v>25985447420.0107</v>
+        <v>18549908935</v>
       </c>
       <c r="AY241">
-        <v>24236814754.91555</v>
+        <v>20272769035</v>
       </c>
     </row>
     <row r="242" spans="1:51" x14ac:dyDescent="0.25">
@@ -38127,154 +38175,154 @@
         <v>2021</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C242" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D242">
-        <v>-12343720124.478638</v>
+        <v>-374381699.92580545</v>
       </c>
       <c r="E242">
-        <v>-7099573461.204159</v>
+        <v>-573437314.6530604</v>
       </c>
       <c r="F242">
-        <v>-8669104336.702179</v>
+        <v>-388447187.61931455</v>
       </c>
       <c r="G242">
-        <v>-9914697173.358345</v>
+        <v>-492062271.927256</v>
       </c>
       <c r="H242">
-        <v>-7674929016.365952</v>
+        <v>-258974499.82602322</v>
       </c>
       <c r="I242">
-        <v>-7199100693.417591</v>
+        <v>-759243637.4280392</v>
       </c>
       <c r="J242">
-        <v>-8465161579.95747</v>
+        <v>-521379629.71239495</v>
       </c>
       <c r="K242">
-        <v>-6541833028.085346</v>
+        <v>-431382154.6837187</v>
       </c>
       <c r="L242">
-        <v>-8803344857.07584</v>
+        <v>-281156366.7197522</v>
       </c>
       <c r="M242">
-        <v>-9644220402.450733</v>
+        <v>-486148444.40212965</v>
       </c>
       <c r="N242">
-        <v>-10907384265.104046</v>
+        <v>-654556660.5541382</v>
       </c>
       <c r="O242">
-        <v>-10983546280.799747</v>
+        <v>-562801811.5483711</v>
       </c>
       <c r="P242">
-        <v>-28112397922.384975</v>
+        <v>-1336266202.1981804</v>
       </c>
       <c r="Q242">
-        <v>-24788726883.141888</v>
+        <v>-1510280409.1813183</v>
       </c>
       <c r="R242">
-        <v>-23810339465.118656</v>
+        <v>-1233918151.1158657</v>
       </c>
       <c r="S242">
-        <v>-31535150948.354527</v>
+        <v>-1703506916.504639</v>
       </c>
       <c r="T242">
-        <v>20398530261.584946</v>
+        <v>979842864.637654</v>
       </c>
       <c r="U242">
-        <v>22627237947.911537</v>
+        <v>871912444.6625679</v>
       </c>
       <c r="V242">
-        <v>22472717863.53638</v>
+        <v>1032168521.274932</v>
       </c>
       <c r="W242">
-        <v>22489318329.526485</v>
+        <v>1009584574.9570531</v>
       </c>
       <c r="X242">
-        <v>23472366017.644455</v>
+        <v>1059586883.6383353</v>
       </c>
       <c r="Y242">
-        <v>23741173482.10456</v>
+        <v>1033095432.7514828</v>
       </c>
       <c r="Z242">
-        <v>23231457061.66831</v>
+        <v>1014788217.5184965</v>
       </c>
       <c r="AA242">
-        <v>24135108352.07814</v>
+        <v>1286962057.6902094</v>
       </c>
       <c r="AB242">
-        <v>22412718599.95106</v>
+        <v>1065069945.1269876</v>
       </c>
       <c r="AC242">
-        <v>23358090091.54497</v>
+        <v>1290397931.382698</v>
       </c>
       <c r="AD242">
-        <v>23653529269.253277</v>
+        <v>1105717226.371706</v>
       </c>
       <c r="AE242">
-        <v>24466604776.19588</v>
+        <v>1112815080.9878755</v>
       </c>
       <c r="AF242">
-        <v>65498486073.03287</v>
+        <v>2883923830.575154</v>
       </c>
       <c r="AG242">
-        <v>69702857829.27551</v>
+        <v>3102266891.3468714</v>
       </c>
       <c r="AH242">
-        <v>69779284013.69751</v>
+        <v>3366820220.3356934</v>
       </c>
       <c r="AI242">
-        <v>71478224136.99413</v>
+        <v>3508930238.7422795</v>
       </c>
       <c r="AJ242">
-        <v>32742250386.063583</v>
+        <v>1354224564.5634594</v>
       </c>
       <c r="AK242">
-        <v>29726811409.115696</v>
+        <v>1445349759.3156283</v>
       </c>
       <c r="AL242">
-        <v>31141822200.23856</v>
+        <v>1420615708.8942466</v>
       </c>
       <c r="AM242">
-        <v>32404015502.88483</v>
+        <v>1501646846.884309</v>
       </c>
       <c r="AN242">
-        <v>31147295034.010406</v>
+        <v>1318561383.4643586</v>
       </c>
       <c r="AO242">
-        <v>30940274175.522152</v>
+        <v>1792339070.179522</v>
       </c>
       <c r="AP242">
-        <v>31696618641.62578</v>
+        <v>1536167847.2308915</v>
       </c>
       <c r="AQ242">
-        <v>30676941380.163486</v>
+        <v>1718344212.373928</v>
       </c>
       <c r="AR242">
-        <v>31216063457.0269</v>
+        <v>1346226311.8467398</v>
       </c>
       <c r="AS242">
-        <v>33002310493.995705</v>
+        <v>1776546375.7848277</v>
       </c>
       <c r="AT242">
-        <v>34560913534.35732</v>
+        <v>1760273886.9258442</v>
       </c>
       <c r="AU242">
-        <v>35450151056.99563</v>
+        <v>1675616892.5362465</v>
       </c>
       <c r="AV242">
-        <v>93610883995.41783</v>
+        <v>4220190032.773334</v>
       </c>
       <c r="AW242">
-        <v>94491584712.41739</v>
+        <v>4612547300.52819</v>
       </c>
       <c r="AX242">
-        <v>93589623478.81616</v>
+        <v>4600738371.451559</v>
       </c>
       <c r="AY242">
-        <v>103013375085.34866</v>
+        <v>5212437155.246919</v>
       </c>
     </row>
     <row r="243" spans="1:51" x14ac:dyDescent="0.25">
@@ -38282,154 +38330,154 @@
         <v>2021</v>
       </c>
       <c r="B243" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C243" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D243">
-        <v>468095973.2403376</v>
+        <v>-3010379622.3476033</v>
       </c>
       <c r="E243">
-        <v>88706569.46540368</v>
+        <v>-3220049809.9450226</v>
       </c>
       <c r="F243">
-        <v>-43517681.39122617</v>
+        <v>-2915597190.103312</v>
       </c>
       <c r="G243">
-        <v>269244675.2067263</v>
+        <v>-3021403166.874135</v>
       </c>
       <c r="H243">
-        <v>-273816924.88248205</v>
+        <v>-3157309364.6099615</v>
       </c>
       <c r="I243">
-        <v>-270173051.6044011</v>
+        <v>-3695437205.797544</v>
       </c>
       <c r="J243">
-        <v>-336428090.51442873</v>
+        <v>-3413209284.54033</v>
       </c>
       <c r="K243">
-        <v>-573082757.0450022</v>
+        <v>-3128834446.4322453</v>
       </c>
       <c r="L243">
-        <v>-522797778.24726105</v>
+        <v>-3587808474.066963</v>
       </c>
       <c r="M243">
-        <v>-77920382.8021841</v>
+        <v>-3344894368.537142</v>
       </c>
       <c r="N243">
-        <v>-429887243.3480158</v>
+        <v>-3554137932.380425</v>
       </c>
       <c r="O243">
-        <v>-687413377.077466</v>
+        <v>-3241159630.3653145</v>
       </c>
       <c r="P243">
-        <v>513284861.3145151</v>
+        <v>-9146026622.395937</v>
       </c>
       <c r="Q243">
-        <v>-274745301.28015685</v>
+        <v>-9874149737.281641</v>
       </c>
       <c r="R243">
-        <v>-1432308625.8066921</v>
+        <v>-10129852205.03954</v>
       </c>
       <c r="S243">
-        <v>-1195221003.227666</v>
+        <v>-10140191931.28288</v>
       </c>
       <c r="T243">
-        <v>1013377903.3569916</v>
+        <v>1843458040.5559525</v>
       </c>
       <c r="U243">
-        <v>752537797.2058598</v>
+        <v>1665994383.6810787</v>
       </c>
       <c r="V243">
-        <v>826922609.1924964</v>
+        <v>1715106022.8861804</v>
       </c>
       <c r="W243">
-        <v>1118411506.2303226</v>
+        <v>1867316476.5364754</v>
       </c>
       <c r="X243">
-        <v>731787725.0706984</v>
+        <v>2003663690.8466547</v>
       </c>
       <c r="Y243">
-        <v>1121420043.4818976</v>
+        <v>1753289861.849421</v>
       </c>
       <c r="Z243">
-        <v>1006003648.5425421</v>
+        <v>1795800539.0731087</v>
       </c>
       <c r="AA243">
-        <v>642040154.5226002</v>
+        <v>1982190302.160497</v>
       </c>
       <c r="AB243">
-        <v>797460819.7532947</v>
+        <v>1568235092.1693678</v>
       </c>
       <c r="AC243">
-        <v>1177516967.2503233</v>
+        <v>1847606132.8545272</v>
       </c>
       <c r="AD243">
-        <v>1034124269.9541204</v>
+        <v>1758573771.325111</v>
       </c>
       <c r="AE243">
-        <v>916439005.4388535</v>
+        <v>1859300514.0616257</v>
       </c>
       <c r="AF243">
-        <v>2592838309.7553477</v>
+        <v>5224558447.123211</v>
       </c>
       <c r="AG243">
-        <v>2971619274.782919</v>
+        <v>5624270029.232552</v>
       </c>
       <c r="AH243">
-        <v>2445504622.8184366</v>
+        <v>5346225933.402973</v>
       </c>
       <c r="AI243">
-        <v>3128080242.643297</v>
+        <v>5465480418.241263</v>
       </c>
       <c r="AJ243">
-        <v>545281930.116654</v>
+        <v>4853837662.903556</v>
       </c>
       <c r="AK243">
-        <v>663831227.7404561</v>
+        <v>4886044193.6261015</v>
       </c>
       <c r="AL243">
-        <v>870440290.5837226</v>
+        <v>4630703212.989492</v>
       </c>
       <c r="AM243">
-        <v>849166831.0235963</v>
+        <v>4888719643.41061</v>
       </c>
       <c r="AN243">
-        <v>1005604649.9531804</v>
+        <v>5160973055.456616</v>
       </c>
       <c r="AO243">
-        <v>1391593095.0862987</v>
+        <v>5448727067.646965</v>
       </c>
       <c r="AP243">
-        <v>1342431739.0569708</v>
+        <v>5209009823.613439</v>
       </c>
       <c r="AQ243">
-        <v>1215122911.5676024</v>
+        <v>5111024748.592742</v>
       </c>
       <c r="AR243">
-        <v>1320258598.0005558</v>
+        <v>5156043566.236331</v>
       </c>
       <c r="AS243">
-        <v>1255437350.0525074</v>
+        <v>5192500501.391669</v>
       </c>
       <c r="AT243">
-        <v>1464011513.3021362</v>
+        <v>5312711703.705536</v>
       </c>
       <c r="AU243">
-        <v>1603852382.5163195</v>
+        <v>5100460144.42694</v>
       </c>
       <c r="AV243">
-        <v>2079553448.4408326</v>
+        <v>14370585069.51915</v>
       </c>
       <c r="AW243">
-        <v>3246364576.063075</v>
+        <v>15498419766.51419</v>
       </c>
       <c r="AX243">
-        <v>3877813248.6251287</v>
+        <v>15476078138.442513</v>
       </c>
       <c r="AY243">
-        <v>4323301245.870963</v>
+        <v>15605672349.524147</v>
       </c>
     </row>
     <row r="244" spans="1:51" x14ac:dyDescent="0.25">
@@ -38437,154 +38485,154 @@
         <v>2021</v>
       </c>
       <c r="B244" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C244" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D244">
-        <v>-110979504.95406961</v>
+        <v>-5560479124.959126</v>
       </c>
       <c r="E244">
-        <v>504508577.1863389</v>
+        <v>-4472615322.435111</v>
       </c>
       <c r="F244">
-        <v>520267351.49729633</v>
+        <v>-5317573153.14801</v>
       </c>
       <c r="G244">
-        <v>802121904.1807265</v>
+        <v>-5375984072.233239</v>
       </c>
       <c r="H244">
-        <v>121790974.08565855</v>
+        <v>-5649001312.055031</v>
       </c>
       <c r="I244">
-        <v>610318771.899746</v>
+        <v>-4902458436.673618</v>
       </c>
       <c r="J244">
-        <v>1250061512.8854146</v>
+        <v>-6107630562.569183</v>
       </c>
       <c r="K244">
-        <v>1015513104.0285528</v>
+        <v>-5364814335.6646595</v>
       </c>
       <c r="L244">
-        <v>-21035001.96390629</v>
+        <v>-4933998337.901393</v>
       </c>
       <c r="M244">
-        <v>499694624.407321</v>
+        <v>-3959792430.963708</v>
       </c>
       <c r="N244">
-        <v>326837107.8448005</v>
+        <v>-3696486441.433299</v>
       </c>
       <c r="O244">
-        <v>809689661.9021206</v>
+        <v>-4954819269.963621</v>
       </c>
       <c r="P244">
-        <v>913796423.7295656</v>
+        <v>-15350667600.542248</v>
       </c>
       <c r="Q244">
-        <v>1534231650.166131</v>
+        <v>-15927443820.961887</v>
       </c>
       <c r="R244">
-        <v>2244539614.950061</v>
+        <v>-16406443236.135235</v>
       </c>
       <c r="S244">
-        <v>1636221394.154242</v>
+        <v>-12611098142.360628</v>
       </c>
       <c r="T244">
-        <v>2384678325.7244687</v>
+        <v>6082357205.686004</v>
       </c>
       <c r="U244">
-        <v>2634484701.281104</v>
+        <v>5713420188.444446</v>
       </c>
       <c r="V244">
-        <v>3288467254.1025333</v>
+        <v>5829209093.905989</v>
       </c>
       <c r="W244">
-        <v>3270753438.068192</v>
+        <v>6558373710.741063</v>
       </c>
       <c r="X244">
-        <v>2594300597.886611</v>
+        <v>6269954340.659527</v>
       </c>
       <c r="Y244">
-        <v>3038975851.0835056</v>
+        <v>6376193913.617374</v>
       </c>
       <c r="Z244">
-        <v>3529779982.298424</v>
+        <v>5809634010.08411</v>
       </c>
       <c r="AA244">
-        <v>3034836557.2809386</v>
+        <v>6254242796.648764</v>
       </c>
       <c r="AB244">
-        <v>2829635733.891411</v>
+        <v>6165461220.346177</v>
       </c>
       <c r="AC244">
-        <v>3026204713.977425</v>
+        <v>6525369108.492734</v>
       </c>
       <c r="AD244">
-        <v>3046519992.1568503</v>
+        <v>6757522609.110574</v>
       </c>
       <c r="AE244">
-        <v>3084006318.2485366</v>
+        <v>6222953466.263237</v>
       </c>
       <c r="AF244">
-        <v>8307630281.108107</v>
+        <v>17624986488.036438</v>
       </c>
       <c r="AG244">
-        <v>8904029887.03831</v>
+        <v>19204521965.017963</v>
       </c>
       <c r="AH244">
-        <v>9394252273.470774</v>
+        <v>18229338027.079052</v>
       </c>
       <c r="AI244">
-        <v>9156731024.382812</v>
+        <v>19505845183.866547</v>
       </c>
       <c r="AJ244">
-        <v>2495657830.6785383</v>
+        <v>11642836330.64513</v>
       </c>
       <c r="AK244">
-        <v>2129976124.0947652</v>
+        <v>10186035510.879557</v>
       </c>
       <c r="AL244">
-        <v>2768199902.605237</v>
+        <v>11146782247.053999</v>
       </c>
       <c r="AM244">
-        <v>2468631533.8874655</v>
+        <v>11934357782.974302</v>
       </c>
       <c r="AN244">
-        <v>2472509623.8009524</v>
+        <v>11918955652.714558</v>
       </c>
       <c r="AO244">
-        <v>2428657079.1837597</v>
+        <v>11278652350.290993</v>
       </c>
       <c r="AP244">
-        <v>2279718469.413009</v>
+        <v>11917264572.653294</v>
       </c>
       <c r="AQ244">
-        <v>2019323453.2523859</v>
+        <v>11619057132.313423</v>
       </c>
       <c r="AR244">
-        <v>2850670735.855317</v>
+        <v>11099459558.24757</v>
       </c>
       <c r="AS244">
-        <v>2526510089.570104</v>
+        <v>10485161539.456442</v>
       </c>
       <c r="AT244">
-        <v>2719682884.31205</v>
+        <v>10454009050.543873</v>
       </c>
       <c r="AU244">
-        <v>2274316656.346416</v>
+        <v>11177772736.226858</v>
       </c>
       <c r="AV244">
-        <v>7393833857.378541</v>
+        <v>32975654088.57869</v>
       </c>
       <c r="AW244">
-        <v>7369798236.872177</v>
+        <v>35131965785.97985</v>
       </c>
       <c r="AX244">
-        <v>7149712658.520712</v>
+        <v>34635781263.21429</v>
       </c>
       <c r="AY244">
-        <v>7520509630.228571</v>
+        <v>32116943326.227173</v>
       </c>
     </row>
     <row r="245" spans="1:51" x14ac:dyDescent="0.25">
@@ -38592,154 +38640,154 @@
         <v>2021</v>
       </c>
       <c r="B245" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C245" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D245">
-        <v>4889762325.417135</v>
+        <v>-1104312894.1589546</v>
       </c>
       <c r="E245">
-        <v>3603662906.6533165</v>
+        <v>-2434500323.5853176</v>
       </c>
       <c r="F245">
-        <v>3765540253.743595</v>
+        <v>-2135449535.7180433</v>
       </c>
       <c r="G245">
-        <v>3533778274.3374634</v>
+        <v>-1173118962.176343</v>
       </c>
       <c r="H245">
-        <v>3995452194.861162</v>
+        <v>-2584162898.1602917</v>
       </c>
       <c r="I245">
-        <v>4557962996.180653</v>
+        <v>-2784942426.160037</v>
       </c>
       <c r="J245">
-        <v>5249684165.3605</v>
+        <v>-2445932583.7139444</v>
       </c>
       <c r="K245">
-        <v>5693069333.74613</v>
+        <v>-2864673944.999325</v>
       </c>
       <c r="L245">
-        <v>3791736291.3448296</v>
+        <v>-3526666447.178995</v>
       </c>
       <c r="M245">
-        <v>4562503844.889479</v>
+        <v>-2671842346.023176</v>
       </c>
       <c r="N245">
-        <v>4532904686.705126</v>
+        <v>-1983844692.9415693</v>
       </c>
       <c r="O245">
-        <v>5445797150.760639</v>
+        <v>-3266784815.184004</v>
       </c>
       <c r="P245">
-        <v>12258965485.814047</v>
+        <v>-5674262753.462316</v>
       </c>
       <c r="Q245">
-        <v>12087193465.379278</v>
+        <v>-6542224286.496672</v>
       </c>
       <c r="R245">
-        <v>14734489790.45146</v>
+        <v>-8837272975.892265</v>
       </c>
       <c r="S245">
-        <v>14541205682.355244</v>
+        <v>-7922471854.148749</v>
       </c>
       <c r="T245">
-        <v>12734809313.478243</v>
+        <v>5670190476.142953</v>
       </c>
       <c r="U245">
-        <v>12563799834.770308</v>
+        <v>4645000175.2469845</v>
       </c>
       <c r="V245">
-        <v>13188209774.232891</v>
+        <v>5260817536.247526</v>
       </c>
       <c r="W245">
-        <v>13378086317.169062</v>
+        <v>6360981396.775677</v>
       </c>
       <c r="X245">
-        <v>14046525013.708286</v>
+        <v>5569211108.074592</v>
       </c>
       <c r="Y245">
-        <v>14760758084.33608</v>
+        <v>5579098048.573674</v>
       </c>
       <c r="Z245">
-        <v>15313103006.66983</v>
+        <v>5667094252.381664</v>
       </c>
       <c r="AA245">
-        <v>15914602039.339025</v>
+        <v>5480550726.882922</v>
       </c>
       <c r="AB245">
-        <v>14894667794.26975</v>
+        <v>5596687459.567659</v>
       </c>
       <c r="AC245">
-        <v>16151360569.65803</v>
+        <v>5082203635.362588</v>
       </c>
       <c r="AD245">
-        <v>15619970281.902542</v>
+        <v>5992413921.755711</v>
       </c>
       <c r="AE245">
-        <v>16053261004.46598</v>
+        <v>5038152142.988049</v>
       </c>
       <c r="AF245">
-        <v>38486818922.481445</v>
+        <v>15576008187.637465</v>
       </c>
       <c r="AG245">
-        <v>42185369415.21343</v>
+        <v>17509290553.423943</v>
       </c>
       <c r="AH245">
-        <v>46122372840.27861</v>
+        <v>16744332438.832247</v>
       </c>
       <c r="AI245">
-        <v>47824591856.02655</v>
+        <v>16112769700.106346</v>
       </c>
       <c r="AJ245">
-        <v>7845046988.061108</v>
+        <v>6774503370.301908</v>
       </c>
       <c r="AK245">
-        <v>8960136928.116991</v>
+        <v>7079500498.832302</v>
       </c>
       <c r="AL245">
-        <v>9422669520.489296</v>
+        <v>7396267071.9655695</v>
       </c>
       <c r="AM245">
-        <v>9844308042.831598</v>
+        <v>7534100358.95202</v>
       </c>
       <c r="AN245">
-        <v>10051072818.847124</v>
+        <v>8153374006.234883</v>
       </c>
       <c r="AO245">
-        <v>10202795088.155428</v>
+        <v>8364040474.733711</v>
       </c>
       <c r="AP245">
-        <v>10063418841.30933</v>
+        <v>8113026836.095609</v>
       </c>
       <c r="AQ245">
-        <v>10221532705.592896</v>
+        <v>8345224671.882247</v>
       </c>
       <c r="AR245">
-        <v>11102931502.924921</v>
+        <v>9123353906.746655</v>
       </c>
       <c r="AS245">
-        <v>11588856724.76855</v>
+        <v>7754045981.385764</v>
       </c>
       <c r="AT245">
-        <v>11087065595.197416</v>
+        <v>7976258614.69728</v>
       </c>
       <c r="AU245">
-        <v>10607463853.705341</v>
+        <v>8304936958.172052</v>
       </c>
       <c r="AV245">
-        <v>26227853436.667397</v>
+        <v>21250270941.099777</v>
       </c>
       <c r="AW245">
-        <v>30098175949.834152</v>
+        <v>24051514839.920616</v>
       </c>
       <c r="AX245">
-        <v>31387883049.82715</v>
+        <v>25581605414.72451</v>
       </c>
       <c r="AY245">
-        <v>33283386173.671307</v>
+        <v>24035241554.255096</v>
       </c>
     </row>
     <row r="246" spans="1:51" x14ac:dyDescent="0.25">
@@ -38747,154 +38795,154 @@
         <v>2021</v>
       </c>
       <c r="B246" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C246" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D246">
-        <v>-2268348903.316055</v>
+        <v>-3059237367.928057</v>
       </c>
       <c r="E246">
-        <v>-2626076225.198049</v>
+        <v>-3083428675.918502</v>
       </c>
       <c r="F246">
-        <v>-2629231225.31092</v>
+        <v>-4029376032.6014977</v>
       </c>
       <c r="G246">
-        <v>-3186395517.2376595</v>
+        <v>-3317654004.2082663</v>
       </c>
       <c r="H246">
-        <v>-3277912265.1441245</v>
+        <v>-3610373798.486356</v>
       </c>
       <c r="I246">
-        <v>-3318411854.5229473</v>
+        <v>-3741796703.0032873</v>
       </c>
       <c r="J246">
-        <v>-3408761945.8283224</v>
+        <v>-3632863467.793898</v>
       </c>
       <c r="K246">
-        <v>-3577430301.017848</v>
+        <v>-3600011112.633178</v>
       </c>
       <c r="L246">
-        <v>-3789531794.7536745</v>
+        <v>-3252191741.303868</v>
       </c>
       <c r="M246">
-        <v>-4335400282.280703</v>
+        <v>-2884562722.0891423</v>
       </c>
       <c r="N246">
-        <v>-3970177014.712494</v>
+        <v>-3175740624.354108</v>
       </c>
       <c r="O246">
-        <v>-3805744631.677196</v>
+        <v>-3555592812.67984</v>
       </c>
       <c r="P246">
-        <v>-7523656353.825024</v>
+        <v>-10172042076.448057</v>
       </c>
       <c r="Q246">
-        <v>-9782719636.904732</v>
+        <v>-10669824505.69791</v>
       </c>
       <c r="R246">
-        <v>-10775724041.599846</v>
+        <v>-10485066321.730944</v>
       </c>
       <c r="S246">
-        <v>-12111321928.670393</v>
+        <v>-9615896159.12309</v>
       </c>
       <c r="T246">
-        <v>3234501279.262016</v>
+        <v>1167112982.259067</v>
       </c>
       <c r="U246">
-        <v>2482792249.031958</v>
+        <v>1195060318.1395156</v>
       </c>
       <c r="V246">
-        <v>3196489081.2264004</v>
+        <v>1154758935.8437574</v>
       </c>
       <c r="W246">
-        <v>3160206253.2760143</v>
+        <v>1241371158.0865507</v>
       </c>
       <c r="X246">
-        <v>3144260931.4361644</v>
+        <v>1313773045.0872536</v>
       </c>
       <c r="Y246">
-        <v>3171398499.4361916</v>
+        <v>1258847119.163396</v>
       </c>
       <c r="Z246">
-        <v>3142909284.739499</v>
+        <v>1292456034.1264815</v>
       </c>
       <c r="AA246">
-        <v>3054865029.468704</v>
+        <v>1273944327.8428721</v>
       </c>
       <c r="AB246">
-        <v>2941193749.5338583</v>
+        <v>1278651350.8076901</v>
       </c>
       <c r="AC246">
-        <v>3167973736.014265</v>
+        <v>1326436761.979138</v>
       </c>
       <c r="AD246">
-        <v>2880491225.6158676</v>
+        <v>1321403630.122221</v>
       </c>
       <c r="AE246">
-        <v>3367054156.959063</v>
+        <v>1350423564.5420578</v>
       </c>
       <c r="AF246">
-        <v>8913782609.520374</v>
+        <v>3516932236.24234</v>
       </c>
       <c r="AG246">
-        <v>9475865684.14837</v>
+        <v>3813991322.3372</v>
       </c>
       <c r="AH246">
-        <v>9138968063.742062</v>
+        <v>3845051712.777044</v>
       </c>
       <c r="AI246">
-        <v>9415519118.589195</v>
+        <v>3998263956.6434164</v>
       </c>
       <c r="AJ246">
-        <v>5502850182.578071</v>
+        <v>4226350350.1871243</v>
       </c>
       <c r="AK246">
-        <v>5108868474.230007</v>
+        <v>4278488994.0580177</v>
       </c>
       <c r="AL246">
-        <v>5825720306.53732</v>
+        <v>5184134968.445255</v>
       </c>
       <c r="AM246">
-        <v>6346601770.513674</v>
+        <v>4559025162.294817</v>
       </c>
       <c r="AN246">
-        <v>6422173196.580289</v>
+        <v>4924146843.573609</v>
       </c>
       <c r="AO246">
-        <v>6489810353.959139</v>
+        <v>5000643822.166683</v>
       </c>
       <c r="AP246">
-        <v>6551671230.5678215</v>
+        <v>4925319501.92038</v>
       </c>
       <c r="AQ246">
-        <v>6632295330.486552</v>
+        <v>4873955440.47605</v>
       </c>
       <c r="AR246">
-        <v>6730725544.287533</v>
+        <v>4530843092.111558</v>
       </c>
       <c r="AS246">
-        <v>7503374018.294968</v>
+        <v>4210999484.06828</v>
       </c>
       <c r="AT246">
-        <v>6850668240.3283615</v>
+        <v>4497144254.476329</v>
       </c>
       <c r="AU246">
-        <v>7172798788.636259</v>
+        <v>4906016377.221898</v>
       </c>
       <c r="AV246">
-        <v>16437438963.345398</v>
+        <v>13688974312.690397</v>
       </c>
       <c r="AW246">
-        <v>19258585321.0531</v>
+        <v>14483815828.03511</v>
       </c>
       <c r="AX246">
-        <v>19914692105.341908</v>
+        <v>14330118034.507988</v>
       </c>
       <c r="AY246">
-        <v>21526841047.25959</v>
+        <v>13614160115.766506</v>
       </c>
     </row>
     <row r="247" spans="1:51" x14ac:dyDescent="0.25">
@@ -38902,386 +38950,1394 @@
         <v>2021</v>
       </c>
       <c r="B247" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C247" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D247">
-        <v>315434218.73945236</v>
+        <v>-11593068712.07544</v>
       </c>
       <c r="E247">
-        <v>177539650.36824608</v>
+        <v>-6726647206.694408</v>
       </c>
       <c r="F247">
-        <v>204290358.82517052</v>
+        <v>-8193415021.382809</v>
       </c>
       <c r="G247">
-        <v>550509524.2526627</v>
+        <v>-9921894872.810978</v>
       </c>
       <c r="H247">
-        <v>950989159.2046547</v>
+        <v>-7899218610.014164</v>
       </c>
       <c r="I247">
-        <v>-29850622.709643364</v>
+        <v>-7530136499.2343445</v>
       </c>
       <c r="J247">
-        <v>280094299.1337261</v>
+        <v>-9198082113.203754</v>
       </c>
       <c r="K247">
-        <v>785934151.9479008</v>
+        <v>-7604085907.187447</v>
       </c>
       <c r="L247">
-        <v>-142264325.7100439</v>
+        <v>-9490537054.449371</v>
       </c>
       <c r="M247">
-        <v>993098669.3072786</v>
+        <v>-9350227756.063961</v>
       </c>
       <c r="N247">
-        <v>440191147.917655</v>
+        <v>-10397821201.993294</v>
       </c>
       <c r="O247">
-        <v>568317348.7229519</v>
+        <v>-10252766921.89006</v>
       </c>
       <c r="P247">
-        <v>697264227.932869</v>
+        <v>-26513130940.152657</v>
       </c>
       <c r="Q247">
-        <v>1471648060.747674</v>
+        <v>-25351249982.059486</v>
       </c>
       <c r="R247">
-        <v>923764125.371583</v>
+        <v>-26292705074.840572</v>
       </c>
       <c r="S247">
-        <v>2001607165.9478855</v>
+        <v>-30000815879.947315</v>
       </c>
       <c r="T247">
-        <v>4842434166.415649</v>
+        <v>20382356397.53312</v>
       </c>
       <c r="U247">
-        <v>4379952614.94431</v>
+        <v>22769818609.318863</v>
       </c>
       <c r="V247">
-        <v>4901590851.665967</v>
+        <v>22702511512.276775</v>
       </c>
       <c r="W247">
-        <v>5016322473.99489</v>
+        <v>22070615486.670666</v>
       </c>
       <c r="X247">
-        <v>5778645263.76832</v>
+        <v>23372514527.873173</v>
       </c>
       <c r="Y247">
-        <v>5261707704.884985</v>
+        <v>23832746495.048782</v>
       </c>
       <c r="Z247">
-        <v>5005329929.516158</v>
+        <v>23137218543.25703</v>
       </c>
       <c r="AA247">
-        <v>5655242839.14268</v>
+        <v>23973630487.161972</v>
       </c>
       <c r="AB247">
-        <v>4671522497.717769</v>
+        <v>22669839579.60767</v>
       </c>
       <c r="AC247">
-        <v>5317513664.678374</v>
+        <v>23566801361.704422</v>
       </c>
       <c r="AD247">
-        <v>5182036930.538444</v>
+        <v>23704814645.95844</v>
       </c>
       <c r="AE247">
-        <v>5450710725.732454</v>
+        <v>24308152186.589127</v>
       </c>
       <c r="AF247">
-        <v>14123977633.025925</v>
+        <v>65854686519.12875</v>
       </c>
       <c r="AG247">
-        <v>16056675442.648195</v>
+        <v>69275876509.59262</v>
       </c>
       <c r="AH247">
-        <v>15332095266.376606</v>
+        <v>69780688610.02667</v>
       </c>
       <c r="AI247">
-        <v>15950261320.949272</v>
+        <v>71579768194.25198</v>
       </c>
       <c r="AJ247">
-        <v>4526999947.676197</v>
+        <v>31975425109.60856</v>
       </c>
       <c r="AK247">
-        <v>4202412964.576064</v>
+        <v>29496465816.01327</v>
       </c>
       <c r="AL247">
-        <v>4697300492.840796</v>
+        <v>30895926533.659584</v>
       </c>
       <c r="AM247">
-        <v>4465812949.742228</v>
+        <v>31992510359.481644</v>
       </c>
       <c r="AN247">
-        <v>4827656104.563665</v>
+        <v>31271733137.887337</v>
       </c>
       <c r="AO247">
-        <v>5291558327.594628</v>
+        <v>31362882994.283127</v>
       </c>
       <c r="AP247">
-        <v>4725235630.382432</v>
+        <v>32335300656.460785</v>
       </c>
       <c r="AQ247">
-        <v>4869308687.194779</v>
+        <v>31577716394.34942</v>
       </c>
       <c r="AR247">
-        <v>4813786823.427813</v>
+        <v>32160376634.05704</v>
       </c>
       <c r="AS247">
-        <v>4324414995.371096</v>
+        <v>32917029117.768383</v>
       </c>
       <c r="AT247">
-        <v>4741845782.620789</v>
+        <v>34102635847.951733</v>
       </c>
       <c r="AU247">
-        <v>4882393377.009502</v>
+        <v>34560919108.47919</v>
       </c>
       <c r="AV247">
-        <v>13426713405.09306</v>
+        <v>92367817459.2814</v>
       </c>
       <c r="AW247">
-        <v>14585027381.90052</v>
+        <v>94627126491.6521</v>
       </c>
       <c r="AX247">
-        <v>14408331141.005024</v>
+        <v>96073393684.86725</v>
       </c>
       <c r="AY247">
-        <v>13948654155.001387</v>
+        <v>101580584074.19931</v>
       </c>
     </row>
     <row r="248" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C248" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D248">
-        <v>-28241210404.836876</v>
+        <v>1780015052</v>
       </c>
       <c r="E248">
-        <v>-28977346103.08941</v>
+        <v>2121228011</v>
+      </c>
+      <c r="F248">
+        <v>1974802405</v>
+      </c>
+      <c r="G248">
+        <v>1548284553</v>
+      </c>
+      <c r="H248">
+        <v>1455330586</v>
+      </c>
+      <c r="I248">
+        <v>1469688209</v>
+      </c>
+      <c r="J248">
+        <v>1025826987</v>
+      </c>
+      <c r="K248">
+        <v>1027605775</v>
+      </c>
+      <c r="L248">
+        <v>378034073</v>
+      </c>
+      <c r="M248">
+        <v>1908855995</v>
+      </c>
+      <c r="N248">
+        <v>1501832053</v>
+      </c>
+      <c r="O248">
+        <v>1783130919</v>
+      </c>
+      <c r="P248">
+        <v>5876045468</v>
+      </c>
+      <c r="Q248">
+        <v>4473303348</v>
+      </c>
+      <c r="R248">
+        <v>2431466835</v>
+      </c>
+      <c r="S248">
+        <v>5193818967</v>
       </c>
       <c r="T248">
-        <v>46605561083.2761</v>
+        <v>3573516774</v>
       </c>
       <c r="U248">
-        <v>48083738835.60403</v>
+        <v>4126486929</v>
+      </c>
+      <c r="V248">
+        <v>4467506899</v>
+      </c>
+      <c r="W248">
+        <v>4621651364</v>
+      </c>
+      <c r="X248">
+        <v>4189600982</v>
+      </c>
+      <c r="Y248">
+        <v>4415245915</v>
+      </c>
+      <c r="Z248">
+        <v>4388846441</v>
+      </c>
+      <c r="AA248">
+        <v>4271586599</v>
+      </c>
+      <c r="AB248">
+        <v>4226215309</v>
+      </c>
+      <c r="AC248">
+        <v>4881668727</v>
+      </c>
+      <c r="AD248">
+        <v>4763956730</v>
+      </c>
+      <c r="AE248">
+        <v>5153795269</v>
+      </c>
+      <c r="AF248">
+        <v>12167510602</v>
+      </c>
+      <c r="AG248">
+        <v>13226498261</v>
+      </c>
+      <c r="AH248">
+        <v>12886648349</v>
+      </c>
+      <c r="AI248">
+        <v>14799420726</v>
       </c>
       <c r="AJ248">
-        <v>74846771488.11298</v>
+        <v>1793501722</v>
       </c>
       <c r="AK248">
-        <v>77061084938.69344</v>
+        <v>2005258918</v>
+      </c>
+      <c r="AL248">
+        <v>2492704494</v>
+      </c>
+      <c r="AM248">
+        <v>3073366811</v>
+      </c>
+      <c r="AN248">
+        <v>2734270396</v>
+      </c>
+      <c r="AO248">
+        <v>2945557706</v>
+      </c>
+      <c r="AP248">
+        <v>3363019454</v>
+      </c>
+      <c r="AQ248">
+        <v>3243980824</v>
+      </c>
+      <c r="AR248">
+        <v>3848181236</v>
+      </c>
+      <c r="AS248">
+        <v>2972812732</v>
+      </c>
+      <c r="AT248">
+        <v>3262124677</v>
+      </c>
+      <c r="AU248">
+        <v>3370664350</v>
+      </c>
+      <c r="AV248">
+        <v>6291465134</v>
+      </c>
+      <c r="AW248">
+        <v>8753194913</v>
+      </c>
+      <c r="AX248">
+        <v>10455181514</v>
+      </c>
+      <c r="AY248">
+        <v>9605601759</v>
       </c>
     </row>
     <row r="249" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C249" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D249">
-        <v>1104520250.1690712</v>
+        <v>449490582.48847795</v>
       </c>
       <c r="E249">
-        <v>1208616491.9061794</v>
+        <v>174609536.08383477</v>
+      </c>
+      <c r="F249">
+        <v>38988226.138026476</v>
+      </c>
+      <c r="G249">
+        <v>320963125.05326116</v>
+      </c>
+      <c r="H249">
+        <v>-221146024.32502234</v>
+      </c>
+      <c r="I249">
+        <v>-273274285.08943486</v>
+      </c>
+      <c r="J249">
+        <v>-295644076.2163757</v>
+      </c>
+      <c r="K249">
+        <v>-616583964.7871222</v>
+      </c>
+      <c r="L249">
+        <v>-555422084.3020613</v>
+      </c>
+      <c r="M249">
+        <v>-371771408.40262175</v>
+      </c>
+      <c r="N249">
+        <v>-483063718.2931334</v>
+      </c>
+      <c r="O249">
+        <v>-748132925.3478315</v>
+      </c>
+      <c r="P249">
+        <v>663088344.7103392</v>
+      </c>
+      <c r="Q249">
+        <v>-173457184.36119604</v>
+      </c>
+      <c r="R249">
+        <v>-1467650125.3055592</v>
+      </c>
+      <c r="S249">
+        <v>-1602968052.0435867</v>
       </c>
       <c r="T249">
-        <v>3999999162.153935</v>
+        <v>990392441.4318516</v>
       </c>
       <c r="U249">
-        <v>3973369039.5355377</v>
+        <v>802589813.2644373</v>
+      </c>
+      <c r="V249">
+        <v>876448286.9027456</v>
+      </c>
+      <c r="W249">
+        <v>1138679148.5778003</v>
+      </c>
+      <c r="X249">
+        <v>763102166.9013655</v>
+      </c>
+      <c r="Y249">
+        <v>1078773795.3977377</v>
+      </c>
+      <c r="Z249">
+        <v>999558473.9928089</v>
+      </c>
+      <c r="AA249">
+        <v>666025752.1555088</v>
+      </c>
+      <c r="AB249">
+        <v>827822332.983077</v>
+      </c>
+      <c r="AC249">
+        <v>1036838417.046546</v>
+      </c>
+      <c r="AD249">
+        <v>1039043622.0422498</v>
+      </c>
+      <c r="AE249">
+        <v>913698455.3038704</v>
+      </c>
+      <c r="AF249">
+        <v>2669430541.599035</v>
+      </c>
+      <c r="AG249">
+        <v>2980555110.8769035</v>
+      </c>
+      <c r="AH249">
+        <v>2493406559.131395</v>
+      </c>
+      <c r="AI249">
+        <v>2989580494.392666</v>
       </c>
       <c r="AJ249">
-        <v>2895478911.9848638</v>
+        <v>540901858.9433737</v>
       </c>
       <c r="AK249">
-        <v>2764752547.6293583</v>
+        <v>627980277.1806026</v>
+      </c>
+      <c r="AL249">
+        <v>837460060.7647191</v>
+      </c>
+      <c r="AM249">
+        <v>817716023.5245391</v>
+      </c>
+      <c r="AN249">
+        <v>984248191.2263879</v>
+      </c>
+      <c r="AO249">
+        <v>1352048080.4871726</v>
+      </c>
+      <c r="AP249">
+        <v>1295202550.2091846</v>
+      </c>
+      <c r="AQ249">
+        <v>1282609716.942631</v>
+      </c>
+      <c r="AR249">
+        <v>1383244417.2851384</v>
+      </c>
+      <c r="AS249">
+        <v>1408609825.4491677</v>
+      </c>
+      <c r="AT249">
+        <v>1522107340.3353832</v>
+      </c>
+      <c r="AU249">
+        <v>1661831380.651702</v>
+      </c>
+      <c r="AV249">
+        <v>2006342196.8886952</v>
+      </c>
+      <c r="AW249">
+        <v>3154012295.2380996</v>
+      </c>
+      <c r="AX249">
+        <v>3961056684.4369535</v>
+      </c>
+      <c r="AY249">
+        <v>4592548546.436253</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C250" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D250">
-        <v>1061585525.9176054</v>
+        <v>-242367118.8635192</v>
       </c>
       <c r="E250">
-        <v>1019806752.4458632</v>
+        <v>183340151.71617794</v>
+      </c>
+      <c r="F250">
+        <v>644986981.3131819</v>
+      </c>
+      <c r="G250">
+        <v>816753626.2645082</v>
+      </c>
+      <c r="H250">
+        <v>355428988.4902234</v>
+      </c>
+      <c r="I250">
+        <v>629687023.372385</v>
+      </c>
+      <c r="J250">
+        <v>1191567458.7601175</v>
+      </c>
+      <c r="K250">
+        <v>731758254.389988</v>
+      </c>
+      <c r="L250">
+        <v>7541268.944829941</v>
+      </c>
+      <c r="M250">
+        <v>440676792.93366337</v>
+      </c>
+      <c r="N250">
+        <v>221778752.3328681</v>
+      </c>
+      <c r="O250">
+        <v>798987817.3455682</v>
+      </c>
+      <c r="P250">
+        <v>585960014.1658406</v>
+      </c>
+      <c r="Q250">
+        <v>1801869638.1271167</v>
+      </c>
+      <c r="R250">
+        <v>1930866982.0949354</v>
+      </c>
+      <c r="S250">
+        <v>1461443362.6120996</v>
       </c>
       <c r="T250">
-        <v>3908499544.769113</v>
+        <v>2297617265.5328555</v>
       </c>
       <c r="U250">
-        <v>3667834913.5712123</v>
+        <v>2419486445.3420506</v>
+      </c>
+      <c r="V250">
+        <v>3195300463.79938</v>
+      </c>
+      <c r="W250">
+        <v>3154827526.112211</v>
+      </c>
+      <c r="X250">
+        <v>2747010887.666039</v>
+      </c>
+      <c r="Y250">
+        <v>3014594218.9166865</v>
+      </c>
+      <c r="Z250">
+        <v>3424879629.2383556</v>
+      </c>
+      <c r="AA250">
+        <v>3053257449.04154</v>
+      </c>
+      <c r="AB250">
+        <v>2815843387.9539104</v>
+      </c>
+      <c r="AC250">
+        <v>3060128380.245401</v>
+      </c>
+      <c r="AD250">
+        <v>2940142138.511404</v>
+      </c>
+      <c r="AE250">
+        <v>3162377779.640164</v>
+      </c>
+      <c r="AF250">
+        <v>7912404174.674286</v>
+      </c>
+      <c r="AG250">
+        <v>8916432632.694937</v>
+      </c>
+      <c r="AH250">
+        <v>9293980466.233807</v>
+      </c>
+      <c r="AI250">
+        <v>9162648298.396969</v>
       </c>
       <c r="AJ250">
-        <v>2846914018.8515077</v>
+        <v>2539984384.3963747</v>
       </c>
       <c r="AK250">
-        <v>2648028161.125349</v>
+        <v>2236146293.6258726</v>
+      </c>
+      <c r="AL250">
+        <v>2550313482.486198</v>
+      </c>
+      <c r="AM250">
+        <v>2338073899.847703</v>
+      </c>
+      <c r="AN250">
+        <v>2391581899.1758156</v>
+      </c>
+      <c r="AO250">
+        <v>2384907195.5443015</v>
+      </c>
+      <c r="AP250">
+        <v>2233312170.478238</v>
+      </c>
+      <c r="AQ250">
+        <v>2321499194.651552</v>
+      </c>
+      <c r="AR250">
+        <v>2808302119.0090804</v>
+      </c>
+      <c r="AS250">
+        <v>2619451587.3117375</v>
+      </c>
+      <c r="AT250">
+        <v>2718363386.178536</v>
+      </c>
+      <c r="AU250">
+        <v>2363389962.2945957</v>
+      </c>
+      <c r="AV250">
+        <v>7326444160.508446</v>
+      </c>
+      <c r="AW250">
+        <v>7114562994.56782</v>
+      </c>
+      <c r="AX250">
+        <v>7363113484.13887</v>
+      </c>
+      <c r="AY250">
+        <v>7701204935.784869</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="C251" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D251">
-        <v>-6880511255.648861</v>
+        <v>4654707896.0246935</v>
       </c>
       <c r="E251">
-        <v>-6847953335.008358</v>
+        <v>3492412277.2778664</v>
+      </c>
+      <c r="F251">
+        <v>3784714191.9976444</v>
+      </c>
+      <c r="G251">
+        <v>3392392585.3943043</v>
+      </c>
+      <c r="H251">
+        <v>4043989146.132475</v>
+      </c>
+      <c r="I251">
+        <v>4455504097.186001</v>
+      </c>
+      <c r="J251">
+        <v>5170927537.161909</v>
+      </c>
+      <c r="K251">
+        <v>5536364884.418798</v>
+      </c>
+      <c r="L251">
+        <v>4608833392.4488945</v>
+      </c>
+      <c r="M251">
+        <v>4400709887.669146</v>
+      </c>
+      <c r="N251">
+        <v>4358147931.359129</v>
+      </c>
+      <c r="O251">
+        <v>5918206998.929134</v>
+      </c>
+      <c r="P251">
+        <v>11931834365.300205</v>
+      </c>
+      <c r="Q251">
+        <v>11891885828.71278</v>
+      </c>
+      <c r="R251">
+        <v>15316125814.029602</v>
+      </c>
+      <c r="S251">
+        <v>14677064817.957409</v>
       </c>
       <c r="T251">
-        <v>27603099911.20654</v>
+        <v>12615480182.598803</v>
       </c>
       <c r="U251">
-        <v>27079310674.22233</v>
+        <v>12528024025.52815</v>
+      </c>
+      <c r="V251">
+        <v>13189690482.834389</v>
+      </c>
+      <c r="W251">
+        <v>13327125796.255411</v>
+      </c>
+      <c r="X251">
+        <v>14035332323.85396</v>
+      </c>
+      <c r="Y251">
+        <v>14545287977.486158</v>
+      </c>
+      <c r="Z251">
+        <v>15379567909.987774</v>
+      </c>
+      <c r="AA251">
+        <v>15692085154.684513</v>
+      </c>
+      <c r="AB251">
+        <v>15557763749.566946</v>
+      </c>
+      <c r="AC251">
+        <v>15918673278.71352</v>
+      </c>
+      <c r="AD251">
+        <v>15409243488.220768</v>
+      </c>
+      <c r="AE251">
+        <v>16644381222.269619</v>
+      </c>
+      <c r="AF251">
+        <v>38333194690.96134</v>
+      </c>
+      <c r="AG251">
+        <v>41907746097.59553</v>
+      </c>
+      <c r="AH251">
+        <v>46629416814.239235</v>
+      </c>
+      <c r="AI251">
+        <v>47972297989.2039</v>
       </c>
       <c r="AJ251">
-        <v>34483611166.8554</v>
+        <v>7960772286.574109</v>
       </c>
       <c r="AK251">
-        <v>33927264009.230686</v>
+        <v>9035611748.250284</v>
+      </c>
+      <c r="AL251">
+        <v>9404976290.836744</v>
+      </c>
+      <c r="AM251">
+        <v>9934733210.861107</v>
+      </c>
+      <c r="AN251">
+        <v>9991343177.721485</v>
+      </c>
+      <c r="AO251">
+        <v>10089783880.300158</v>
+      </c>
+      <c r="AP251">
+        <v>10208640372.825865</v>
+      </c>
+      <c r="AQ251">
+        <v>10155720270.265715</v>
+      </c>
+      <c r="AR251">
+        <v>10948930357.118052</v>
+      </c>
+      <c r="AS251">
+        <v>11517963391.044374</v>
+      </c>
+      <c r="AT251">
+        <v>11051095556.861639</v>
+      </c>
+      <c r="AU251">
+        <v>10726174223.340485</v>
+      </c>
+      <c r="AV251">
+        <v>26401360325.66114</v>
+      </c>
+      <c r="AW251">
+        <v>30015860268.88275</v>
+      </c>
+      <c r="AX251">
+        <v>31313291000.209633</v>
+      </c>
+      <c r="AY251">
+        <v>33295233171.2465</v>
       </c>
     </row>
     <row r="252" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B252" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C252" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D252">
-        <v>-33294525138.938965</v>
+        <v>-4039620627.2174683</v>
       </c>
       <c r="E252">
-        <v>-41207855184.2277</v>
+        <v>-3707612217.4658155</v>
+      </c>
+      <c r="F252">
+        <v>-3017135403.324671</v>
+      </c>
+      <c r="G252">
+        <v>-1237025273.489653</v>
+      </c>
+      <c r="H252">
+        <v>-2960359976.761546</v>
+      </c>
+      <c r="I252">
+        <v>-4935990311.518174</v>
+      </c>
+      <c r="J252">
+        <v>-2822132623.0948477</v>
+      </c>
+      <c r="K252">
+        <v>-2483347583.799754</v>
+      </c>
+      <c r="L252">
+        <v>-3538513127.4079676</v>
+      </c>
+      <c r="M252">
+        <v>-1887356283.5350294</v>
+      </c>
+      <c r="N252">
+        <v>-5515629779.833122</v>
+      </c>
+      <c r="O252">
+        <v>-3398246126.5519342</v>
+      </c>
+      <c r="P252">
+        <v>-10764368248.007954</v>
+      </c>
+      <c r="Q252">
+        <v>-9133375561.769373</v>
+      </c>
+      <c r="R252">
+        <v>-8843993334.30257</v>
+      </c>
+      <c r="S252">
+        <v>-10801232189.920086</v>
       </c>
       <c r="T252">
-        <v>12764657710.512802</v>
+        <v>1404384233.4324467</v>
       </c>
       <c r="U252">
-        <v>12975459336.654984</v>
+        <v>1714242970.6346147</v>
+      </c>
+      <c r="V252">
+        <v>2494509194.2712555</v>
+      </c>
+      <c r="W252">
+        <v>2925281824.278962</v>
+      </c>
+      <c r="X252">
+        <v>1738243608.5472183</v>
+      </c>
+      <c r="Y252">
+        <v>1187931113.4724023</v>
+      </c>
+      <c r="Z252">
+        <v>1604141481.8476598</v>
+      </c>
+      <c r="AA252">
+        <v>2760180508.318345</v>
+      </c>
+      <c r="AB252">
+        <v>1897049907.334954</v>
+      </c>
+      <c r="AC252">
+        <v>2548703897.229356</v>
+      </c>
+      <c r="AD252">
+        <v>1278498804.659046</v>
+      </c>
+      <c r="AE252">
+        <v>2084765912.9737456</v>
+      </c>
+      <c r="AF252">
+        <v>5613136398.338317</v>
+      </c>
+      <c r="AG252">
+        <v>5851456546.298583</v>
+      </c>
+      <c r="AH252">
+        <v>6261371897.500959</v>
+      </c>
+      <c r="AI252">
+        <v>5911968614.862147</v>
       </c>
       <c r="AJ252">
-        <v>46059182849.45177</v>
+        <v>5444004860.649915</v>
       </c>
       <c r="AK252">
-        <v>54183314520.88268</v>
+        <v>5421855188.1004305</v>
+      </c>
+      <c r="AL252">
+        <v>5511644597.595926</v>
+      </c>
+      <c r="AM252">
+        <v>4162307097.7686152</v>
+      </c>
+      <c r="AN252">
+        <v>4698603585.308764</v>
+      </c>
+      <c r="AO252">
+        <v>6123921424.990577</v>
+      </c>
+      <c r="AP252">
+        <v>4426274104.942508</v>
+      </c>
+      <c r="AQ252">
+        <v>5243528092.118099</v>
+      </c>
+      <c r="AR252">
+        <v>5435563034.742922</v>
+      </c>
+      <c r="AS252">
+        <v>4436060180.764385</v>
+      </c>
+      <c r="AT252">
+        <v>6794128584.492168</v>
+      </c>
+      <c r="AU252">
+        <v>5483012039.52568</v>
+      </c>
+      <c r="AV252">
+        <v>16377504646.346272</v>
+      </c>
+      <c r="AW252">
+        <v>14984832108.067955</v>
+      </c>
+      <c r="AX252">
+        <v>15105365231.80353</v>
+      </c>
+      <c r="AY252">
+        <v>16713200804.782234</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C253" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D253">
-        <v>-18021833052.627472</v>
+        <v>-2372666454.288824</v>
       </c>
       <c r="E253">
-        <v>-16950702307.491142</v>
+        <v>-2787608117.059126</v>
+      </c>
+      <c r="F253">
+        <v>-2788451036.2028403</v>
+      </c>
+      <c r="G253">
+        <v>-3275279611.5224633</v>
+      </c>
+      <c r="H253">
+        <v>-3245515924.070316</v>
+      </c>
+      <c r="I253">
+        <v>-3382720693.8550043</v>
+      </c>
+      <c r="J253">
+        <v>-3412017875.7137914</v>
+      </c>
+      <c r="K253">
+        <v>-3578725752.903589</v>
+      </c>
+      <c r="L253">
+        <v>-3739130129.9556975</v>
+      </c>
+      <c r="M253">
+        <v>-4191179790.9628735</v>
+      </c>
+      <c r="N253">
+        <v>-3847254534.943593</v>
+      </c>
+      <c r="O253">
+        <v>-3605590431.5218787</v>
+      </c>
+      <c r="P253">
+        <v>-7948725607.550791</v>
+      </c>
+      <c r="Q253">
+        <v>-9903516229.447784</v>
+      </c>
+      <c r="R253">
+        <v>-10729873758.573078</v>
+      </c>
+      <c r="S253">
+        <v>-11644024757.428345</v>
       </c>
       <c r="T253">
-        <v>25113783750.09977</v>
+        <v>3143279120.5564737</v>
       </c>
       <c r="U253">
-        <v>26217436142.703773</v>
+        <v>2423262757.223816</v>
+      </c>
+      <c r="V253">
+        <v>3072241929.365731</v>
+      </c>
+      <c r="W253">
+        <v>3068470297.4043508</v>
+      </c>
+      <c r="X253">
+        <v>3105469453.8642106</v>
+      </c>
+      <c r="Y253">
+        <v>3070121819.4072046</v>
+      </c>
+      <c r="Z253">
+        <v>3104963168.552754</v>
+      </c>
+      <c r="AA253">
+        <v>3048920579.523044</v>
+      </c>
+      <c r="AB253">
+        <v>2979890087.454676</v>
+      </c>
+      <c r="AC253">
+        <v>3240579095.412449</v>
+      </c>
+      <c r="AD253">
+        <v>3053652952.7023306</v>
+      </c>
+      <c r="AE253">
+        <v>3527091270.532967</v>
+      </c>
+      <c r="AF253">
+        <v>8638783807.14602</v>
+      </c>
+      <c r="AG253">
+        <v>9244061570.675766</v>
+      </c>
+      <c r="AH253">
+        <v>9133773835.530474</v>
+      </c>
+      <c r="AI253">
+        <v>9821323318.647747</v>
       </c>
       <c r="AJ253">
-        <v>43135616802.72724</v>
+        <v>5515945574.845298</v>
       </c>
       <c r="AK253">
-        <v>43168138450.194916</v>
+        <v>5210870874.282942</v>
+      </c>
+      <c r="AL253">
+        <v>5860692965.568571</v>
+      </c>
+      <c r="AM253">
+        <v>6343749908.926814</v>
+      </c>
+      <c r="AN253">
+        <v>6350985377.934526</v>
+      </c>
+      <c r="AO253">
+        <v>6452842513.262209</v>
+      </c>
+      <c r="AP253">
+        <v>6516981044.266545</v>
+      </c>
+      <c r="AQ253">
+        <v>6627646332.426633</v>
+      </c>
+      <c r="AR253">
+        <v>6719020217.410374</v>
+      </c>
+      <c r="AS253">
+        <v>7431758886.375322</v>
+      </c>
+      <c r="AT253">
+        <v>6900907487.645924</v>
+      </c>
+      <c r="AU253">
+        <v>7132681702.054846</v>
+      </c>
+      <c r="AV253">
+        <v>16587509414.69681</v>
+      </c>
+      <c r="AW253">
+        <v>19147577800.12355</v>
+      </c>
+      <c r="AX253">
+        <v>19863647594.103554</v>
+      </c>
+      <c r="AY253">
+        <v>21465348076.07609</v>
       </c>
     </row>
     <row r="254" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B254" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C254" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D254">
-        <v>-801176076.2590113</v>
+        <v>343067712.3862324</v>
       </c>
       <c r="E254">
-        <v>-950275137.1490302</v>
+        <v>335984662.92518044</v>
+      </c>
+      <c r="F254">
+        <v>293382374.21859646</v>
+      </c>
+      <c r="G254">
+        <v>487147379.7965765</v>
+      </c>
+      <c r="H254">
+        <v>932145739.5362806</v>
+      </c>
+      <c r="I254">
+        <v>-143866413.15654755</v>
+      </c>
+      <c r="J254">
+        <v>408708577.67760944</v>
+      </c>
+      <c r="K254">
+        <v>615288342.9379196</v>
+      </c>
+      <c r="L254">
+        <v>-79161144.33882141</v>
+      </c>
+      <c r="M254">
+        <v>818834479.8532982</v>
+      </c>
+      <c r="N254">
+        <v>450751438.1039238</v>
+      </c>
+      <c r="O254">
+        <v>598617624.0597496</v>
+      </c>
+      <c r="P254">
+        <v>972434749.5300093</v>
+      </c>
+      <c r="Q254">
+        <v>1275426706.1763096</v>
+      </c>
+      <c r="R254">
+        <v>944835776.2767076</v>
+      </c>
+      <c r="S254">
+        <v>1868203542.0169716</v>
       </c>
       <c r="T254">
-        <v>3634116349.6533384</v>
+        <v>4871297080.624027</v>
       </c>
       <c r="U254">
-        <v>3424427146.358828</v>
+        <v>4535696530.520635</v>
+      </c>
+      <c r="V254">
+        <v>4929709296.237855</v>
+      </c>
+      <c r="W254">
+        <v>4999701895.12143</v>
+      </c>
+      <c r="X254">
+        <v>5705701116.075324</v>
+      </c>
+      <c r="Y254">
+        <v>5153784053.9242525</v>
+      </c>
+      <c r="Z254">
+        <v>5140519382.969276</v>
+      </c>
+      <c r="AA254">
+        <v>5458626734.29088</v>
+      </c>
+      <c r="AB254">
+        <v>4725674937.771854</v>
+      </c>
+      <c r="AC254">
+        <v>5223743869.097623</v>
+      </c>
+      <c r="AD254">
+        <v>5227977153.91402</v>
+      </c>
+      <c r="AE254">
+        <v>5452711708.452818</v>
+      </c>
+      <c r="AF254">
+        <v>14336702907.382515</v>
+      </c>
+      <c r="AG254">
+        <v>15859187065.121006</v>
+      </c>
+      <c r="AH254">
+        <v>15324821055.032011</v>
+      </c>
+      <c r="AI254">
+        <v>15904432731.46446</v>
       </c>
       <c r="AJ254">
-        <v>4435292425.91235</v>
+        <v>4528229368.237795</v>
       </c>
       <c r="AK254">
-        <v>4374702283.507858</v>
+        <v>4199711867.595454</v>
+      </c>
+      <c r="AL254">
+        <v>4636326922.0192585</v>
+      </c>
+      <c r="AM254">
+        <v>4512554515.324854</v>
+      </c>
+      <c r="AN254">
+        <v>4773555376.539043</v>
+      </c>
+      <c r="AO254">
+        <v>5297650467.0808</v>
+      </c>
+      <c r="AP254">
+        <v>4731810805.291667</v>
+      </c>
+      <c r="AQ254">
+        <v>4843338391.352961</v>
+      </c>
+      <c r="AR254">
+        <v>4804836082.110676</v>
+      </c>
+      <c r="AS254">
+        <v>4404909389.244325</v>
+      </c>
+      <c r="AT254">
+        <v>4777225715.810096</v>
+      </c>
+      <c r="AU254">
+        <v>4854094084.393068</v>
+      </c>
+      <c r="AV254">
+        <v>13364268157.852507</v>
+      </c>
+      <c r="AW254">
+        <v>14583760358.944698</v>
+      </c>
+      <c r="AX254">
+        <v>14379985278.755302</v>
+      </c>
+      <c r="AY254">
+        <v>14036229189.447489</v>
       </c>
     </row>
     <row r="255" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B255" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C255" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="D255">
-        <v>-5378345597.330938</v>
+        <v>-6615009280.485369</v>
       </c>
       <c r="E255">
-        <v>-5368383455.221161</v>
+        <v>-6277045185.948318</v>
+      </c>
+      <c r="F255">
+        <v>-7897126165.17808</v>
+      </c>
+      <c r="G255">
+        <v>-7829311901.845488</v>
+      </c>
+      <c r="H255">
+        <v>-7933456671.564084</v>
+      </c>
+      <c r="I255">
+        <v>-7576827088.529888</v>
+      </c>
+      <c r="J255">
+        <v>-7225061023.914545</v>
+      </c>
+      <c r="K255">
+        <v>-7252964157.619123</v>
+      </c>
+      <c r="L255">
+        <v>-7350911501.945043</v>
+      </c>
+      <c r="M255">
+        <v>-7917010475.543648</v>
+      </c>
+      <c r="N255">
+        <v>-8216310928.8504095</v>
+      </c>
+      <c r="O255">
+        <v>-8793875190.576</v>
+      </c>
+      <c r="P255">
+        <v>-20789180631.611763</v>
+      </c>
+      <c r="Q255">
+        <v>-23339595661.93946</v>
+      </c>
+      <c r="R255">
+        <v>-21828936683.47871</v>
+      </c>
+      <c r="S255">
+        <v>-24927196594.97006</v>
       </c>
       <c r="T255">
-        <v>5760940745.238953</v>
+        <v>952918298.3562812</v>
       </c>
       <c r="U255">
-        <v>5423293536.538788</v>
+        <v>992167329.9329296</v>
+      </c>
+      <c r="V255">
+        <v>869198949.4615668</v>
+      </c>
+      <c r="W255">
+        <v>928594498.8401321</v>
+      </c>
+      <c r="X255">
+        <v>1002982223.279157</v>
+      </c>
+      <c r="Y255">
+        <v>904577718.4735756</v>
+      </c>
+      <c r="Z255">
+        <v>946933425.0531507</v>
+      </c>
+      <c r="AA255">
+        <v>984977209.3312936</v>
+      </c>
+      <c r="AB255">
+        <v>706565213.0395037</v>
+      </c>
+      <c r="AC255">
+        <v>798839712.2030047</v>
+      </c>
+      <c r="AD255">
+        <v>896193642.4560308</v>
+      </c>
+      <c r="AE255">
+        <v>1026790222.5733747</v>
+      </c>
+      <c r="AF255">
+        <v>2814284577.7507777</v>
+      </c>
+      <c r="AG255">
+        <v>2836154440.592865</v>
+      </c>
+      <c r="AH255">
+        <v>2638475847.423948</v>
+      </c>
+      <c r="AI255">
+        <v>2721823577.2324104</v>
       </c>
       <c r="AJ255">
-        <v>11139286342.569891</v>
+        <v>7567927578.84165</v>
       </c>
       <c r="AK255">
-        <v>10791676991.759949</v>
+        <v>7269212515.8812475</v>
+      </c>
+      <c r="AL255">
+        <v>8766325114.639647</v>
+      </c>
+      <c r="AM255">
+        <v>8757906400.68562</v>
+      </c>
+      <c r="AN255">
+        <v>8936438894.84324</v>
+      </c>
+      <c r="AO255">
+        <v>8481404807.003464</v>
+      </c>
+      <c r="AP255">
+        <v>8171994448.967696</v>
+      </c>
+      <c r="AQ255">
+        <v>8237941366.9504175</v>
+      </c>
+      <c r="AR255">
+        <v>8057476714.984547</v>
+      </c>
+      <c r="AS255">
+        <v>8715850187.746653</v>
+      </c>
+      <c r="AT255">
+        <v>9112504571.30644</v>
+      </c>
+      <c r="AU255">
+        <v>9820665413.149376</v>
+      </c>
+      <c r="AV255">
+        <v>23603465209.36254</v>
+      </c>
+      <c r="AW255">
+        <v>26175750102.532326</v>
+      </c>
+      <c r="AX255">
+        <v>24467412530.90266</v>
+      </c>
+      <c r="AY255">
+        <v>27649020172.20247</v>
       </c>
     </row>
     <row r="256" spans="1:51" x14ac:dyDescent="0.25">
@@ -39289,28 +40345,55 @@
         <v>2022</v>
       </c>
       <c r="B256" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="C256" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D256">
-        <v>1993327823.3052843</v>
+        <v>-11670447294.33136</v>
       </c>
       <c r="E256">
-        <v>1360451646.7177649</v>
+        <v>-12566421232.70652</v>
+      </c>
+      <c r="F256">
+        <v>-12111459636.710678</v>
+      </c>
+      <c r="G256">
+        <v>-9194319824.178398</v>
+      </c>
+      <c r="P256">
+        <v>-36348328163.74856</v>
       </c>
       <c r="T256">
-        <v>2354879138.629404</v>
+        <v>29882406012.31727</v>
       </c>
       <c r="U256">
-        <v>1927333258.251038</v>
+        <v>29973385068.35482</v>
+      </c>
+      <c r="V256">
+        <v>31301675764.14444</v>
+      </c>
+      <c r="W256">
+        <v>34836149791.09359</v>
+      </c>
+      <c r="AF256">
+        <v>91157466844.81653</v>
       </c>
       <c r="AJ256">
-        <v>361551315.32411987</v>
+        <v>41552853306.64863</v>
       </c>
       <c r="AK256">
-        <v>566881611.5332733</v>
+        <v>42539806301.06134</v>
+      </c>
+      <c r="AL256">
+        <v>43413135400.85512</v>
+      </c>
+      <c r="AM256">
+        <v>44030469615.27199</v>
+      </c>
+      <c r="AV256">
+        <v>127505795008.56508</v>
       </c>
     </row>
     <row r="257" spans="1:51" x14ac:dyDescent="0.25">
@@ -39318,28 +40401,55 @@
         <v>2022</v>
       </c>
       <c r="B257" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C257" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D257">
-        <v>-2393674885.832427</v>
+        <v>997132575.9037068</v>
       </c>
       <c r="E257">
-        <v>-2223320689.933593</v>
+        <v>1048082090.7206731</v>
+      </c>
+      <c r="F257">
+        <v>844042930.9272342</v>
+      </c>
+      <c r="G257">
+        <v>1364653983.3378386</v>
+      </c>
+      <c r="P257">
+        <v>2889257597.551614</v>
       </c>
       <c r="T257">
-        <v>4272389293.0754147</v>
+        <v>2202252281.308286</v>
       </c>
       <c r="U257">
-        <v>4094418183.2312517</v>
+        <v>2331726736.3228717</v>
+      </c>
+      <c r="V257">
+        <v>2312897538.8014865</v>
+      </c>
+      <c r="W257">
+        <v>2605197810.401497</v>
+      </c>
+      <c r="AF257">
+        <v>6846876556.432644</v>
       </c>
       <c r="AJ257">
-        <v>6666064178.907842</v>
+        <v>1205119705.4045794</v>
       </c>
       <c r="AK257">
-        <v>6317738873.1648445</v>
+        <v>1283644645.6021986</v>
+      </c>
+      <c r="AL257">
+        <v>1468854607.8742523</v>
+      </c>
+      <c r="AM257">
+        <v>1240543827.0636582</v>
+      </c>
+      <c r="AV257">
+        <v>3957618958.88103</v>
       </c>
     </row>
     <row r="258" spans="1:51" x14ac:dyDescent="0.25">
@@ -39347,28 +40457,55 @@
         <v>2022</v>
       </c>
       <c r="B258" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C258" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D258">
-        <v>-3155683880.7765226</v>
+        <v>1078859193.6299431</v>
       </c>
       <c r="E258">
-        <v>-3029435283.4671783</v>
+        <v>583347236.3355827</v>
+      </c>
+      <c r="F258">
+        <v>1371536557.6812115</v>
+      </c>
+      <c r="G258">
+        <v>633216633.4663501</v>
+      </c>
+      <c r="P258">
+        <v>3033742987.646737</v>
       </c>
       <c r="T258">
-        <v>2239868514.1197653</v>
+        <v>2920593845.686191</v>
       </c>
       <c r="U258">
-        <v>2180981237.4733505</v>
+        <v>2657123561.7077246</v>
+      </c>
+      <c r="V258">
+        <v>3427531431.8515186</v>
+      </c>
+      <c r="W258">
+        <v>3054384355.458141</v>
+      </c>
+      <c r="AF258">
+        <v>9005248839.245434</v>
       </c>
       <c r="AJ258">
-        <v>5395552394.896288</v>
+        <v>1841734652.056248</v>
       </c>
       <c r="AK258">
-        <v>5210416520.940529</v>
+        <v>2073776325.3721418</v>
+      </c>
+      <c r="AL258">
+        <v>2055994874.1703072</v>
+      </c>
+      <c r="AM258">
+        <v>2421167721.991791</v>
+      </c>
+      <c r="AV258">
+        <v>5971505851.598697</v>
       </c>
     </row>
     <row r="259" spans="1:51" x14ac:dyDescent="0.25">
@@ -39376,28 +40513,55 @@
         <v>2022</v>
       </c>
       <c r="B259" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C259" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D259">
-        <v>-7148559651.878104</v>
+        <v>1087181343.61725</v>
       </c>
       <c r="E259">
-        <v>-5119232373.121945</v>
+        <v>1214978112.390555</v>
+      </c>
+      <c r="F259">
+        <v>1295625472.4867759</v>
+      </c>
+      <c r="G259">
+        <v>2379607238.284935</v>
+      </c>
+      <c r="P259">
+        <v>3597784928.4945807</v>
       </c>
       <c r="T259">
-        <v>6249492612.509923</v>
+        <v>4140575875.657692</v>
       </c>
       <c r="U259">
-        <v>7131641820.932029</v>
+        <v>4049857697.196974</v>
+      </c>
+      <c r="V259">
+        <v>4408214005.307559</v>
+      </c>
+      <c r="W259">
+        <v>5530905028.88857</v>
+      </c>
+      <c r="AF259">
+        <v>12598647578.162224</v>
       </c>
       <c r="AJ259">
-        <v>13398052264.388027</v>
+        <v>3053394532.040442</v>
       </c>
       <c r="AK259">
-        <v>12250874194.053974</v>
+        <v>2834879584.806419</v>
+      </c>
+      <c r="AL259">
+        <v>3112588532.820783</v>
+      </c>
+      <c r="AM259">
+        <v>3151297790.603635</v>
+      </c>
+      <c r="AV259">
+        <v>9000862649.667645</v>
       </c>
     </row>
     <row r="260" spans="1:51" x14ac:dyDescent="0.25">
@@ -39405,28 +40569,55 @@
         <v>2022</v>
       </c>
       <c r="B260" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C260" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D260">
-        <v>-2953049251.8592453</v>
+        <v>963452944.5375056</v>
       </c>
       <c r="E260">
-        <v>-4098396990.9221373</v>
+        <v>1015160299.6208544</v>
+      </c>
+      <c r="F260">
+        <v>961250801.8996315</v>
+      </c>
+      <c r="G260">
+        <v>817127198.7339106</v>
+      </c>
+      <c r="P260">
+        <v>2939864046.0579915</v>
       </c>
       <c r="T260">
-        <v>5783739697.835691</v>
+        <v>3819458594.976865</v>
       </c>
       <c r="U260">
-        <v>5315351781.450181</v>
+        <v>3703538175.5207987</v>
+      </c>
+      <c r="V260">
+        <v>3862993690.175147</v>
+      </c>
+      <c r="W260">
+        <v>3871161360.1996813</v>
+      </c>
+      <c r="AF260">
+        <v>11385990460.67281</v>
       </c>
       <c r="AJ260">
-        <v>8736788949.694937</v>
+        <v>2856005650.439359</v>
       </c>
       <c r="AK260">
-        <v>9413748772.372318</v>
+        <v>2688377875.8999443</v>
+      </c>
+      <c r="AL260">
+        <v>2901742888.2755156</v>
+      </c>
+      <c r="AM260">
+        <v>3054034161.4657707</v>
+      </c>
+      <c r="AV260">
+        <v>8446126414.61482</v>
       </c>
     </row>
     <row r="261" spans="1:51" x14ac:dyDescent="0.25">
@@ -39434,28 +40625,55 @@
         <v>2022</v>
       </c>
       <c r="B261" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C261" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D261">
-        <v>-12474782179.40356</v>
+        <v>-6767149741.711712</v>
       </c>
       <c r="E261">
-        <v>-9818959294.533493</v>
+        <v>-5978485565.544849</v>
+      </c>
+      <c r="F261">
+        <v>-10071331570.408043</v>
+      </c>
+      <c r="G261">
+        <v>-8708218917.961815</v>
+      </c>
+      <c r="P261">
+        <v>-22816966877.664604</v>
       </c>
       <c r="T261">
-        <v>24927421101.57391</v>
+        <v>27620967936.96139</v>
       </c>
       <c r="U261">
-        <v>25486392011.248695</v>
+        <v>27762614251.717255</v>
+      </c>
+      <c r="V261">
+        <v>28872666732.122154</v>
+      </c>
+      <c r="W261">
+        <v>30761346202.88826</v>
+      </c>
+      <c r="AF261">
+        <v>84256248920.80081</v>
       </c>
       <c r="AJ261">
-        <v>37402203280.97747</v>
+        <v>34388117678.6731</v>
       </c>
       <c r="AK261">
-        <v>35305351305.78219</v>
+        <v>33741099817.262104</v>
+      </c>
+      <c r="AL261">
+        <v>38943998302.5302</v>
+      </c>
+      <c r="AM261">
+        <v>39469565120.850075</v>
+      </c>
+      <c r="AV261">
+        <v>107073215798.46541</v>
       </c>
     </row>
     <row r="262" spans="1:51" x14ac:dyDescent="0.25">
@@ -39463,28 +40681,55 @@
         <v>2022</v>
       </c>
       <c r="B262" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C262" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D262">
-        <v>-836107552.2577287</v>
+        <v>-33733272060.03907</v>
       </c>
       <c r="E262">
-        <v>-950429369.4774092</v>
+        <v>-39539167479.79904</v>
+      </c>
+      <c r="F262">
+        <v>-43421163781.18093</v>
+      </c>
+      <c r="G262">
+        <v>-34928915018.309555</v>
+      </c>
+      <c r="P262">
+        <v>-116693603321.01904</v>
       </c>
       <c r="T262">
-        <v>861536400.2895094</v>
+        <v>12754058868.50305</v>
       </c>
       <c r="U262">
-        <v>830960383.1369406</v>
+        <v>13034393106.05139</v>
+      </c>
+      <c r="V262">
+        <v>13591763794.219412</v>
+      </c>
+      <c r="W262">
+        <v>12012647751.748943</v>
+      </c>
+      <c r="AF262">
+        <v>39380215768.77385</v>
       </c>
       <c r="AJ262">
-        <v>1697643952.547238</v>
+        <v>46487330928.54212</v>
       </c>
       <c r="AK262">
-        <v>1781389752.6143498</v>
+        <v>52573560585.85043</v>
+      </c>
+      <c r="AL262">
+        <v>57012927575.400345</v>
+      </c>
+      <c r="AM262">
+        <v>46941562770.058495</v>
+      </c>
+      <c r="AV262">
+        <v>156073819089.7929</v>
       </c>
     </row>
     <row r="263" spans="1:51" x14ac:dyDescent="0.25">
@@ -39492,28 +40737,55 @@
         <v>2022</v>
       </c>
       <c r="B263" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C263" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="D263">
-        <v>1262341683.9504538</v>
+        <v>-17381959439.072754</v>
       </c>
       <c r="E263">
-        <v>1220017216.6726484</v>
+        <v>-16560028634.657486</v>
+      </c>
+      <c r="F263">
+        <v>-15931917199.5093</v>
+      </c>
+      <c r="G263">
+        <v>-16981483840.366756</v>
+      </c>
+      <c r="P263">
+        <v>-49873905273.23954</v>
       </c>
       <c r="T263">
-        <v>3863931215.994757</v>
+        <v>25120100901.03263</v>
       </c>
       <c r="U263">
-        <v>3475659477.6725006</v>
+        <v>26296115044.983826</v>
+      </c>
+      <c r="V263">
+        <v>28806036152.811768</v>
+      </c>
+      <c r="W263">
+        <v>29282296660.42689</v>
+      </c>
+      <c r="AF263">
+        <v>80222252098.82822</v>
       </c>
       <c r="AJ263">
-        <v>2601589532.0443034</v>
+        <v>42502060340.105385</v>
       </c>
       <c r="AK263">
-        <v>2255642260.999852</v>
+        <v>42856143679.64131</v>
+      </c>
+      <c r="AL263">
+        <v>44737953352.32107</v>
+      </c>
+      <c r="AM263">
+        <v>46263780500.79365</v>
+      </c>
+      <c r="AV263">
+        <v>130096157372.06778</v>
       </c>
     </row>
     <row r="264" spans="1:51" x14ac:dyDescent="0.25">
@@ -39521,28 +40793,55 @@
         <v>2022</v>
       </c>
       <c r="B264" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C264" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D264">
-        <v>4405801712.8566475</v>
+        <v>-643065462.817689</v>
       </c>
       <c r="E264">
-        <v>5749229867.229385</v>
+        <v>-831408621.8169165</v>
+      </c>
+      <c r="F264">
+        <v>-955998233.0237699</v>
+      </c>
+      <c r="G264">
+        <v>-1743474110.6708426</v>
+      </c>
+      <c r="P264">
+        <v>-2430472317.6583753</v>
       </c>
       <c r="T264">
-        <v>16620678137.535402</v>
+        <v>3664467462.788809</v>
       </c>
       <c r="U264">
-        <v>17056977193.670403</v>
+        <v>3412804849.558869</v>
+      </c>
+      <c r="V264">
+        <v>3409391015.7461343</v>
+      </c>
+      <c r="W264">
+        <v>3320086278.5652413</v>
+      </c>
+      <c r="AF264">
+        <v>10486663328.093811</v>
       </c>
       <c r="AJ264">
-        <v>12214876424.678755</v>
+        <v>4307532925.606498</v>
       </c>
       <c r="AK264">
-        <v>11307747326.441017</v>
+        <v>4244213471.3757854</v>
+      </c>
+      <c r="AL264">
+        <v>4365389248.769904</v>
+      </c>
+      <c r="AM264">
+        <v>5063560389.236084</v>
+      </c>
+      <c r="AV264">
+        <v>12917135645.752186</v>
       </c>
     </row>
     <row r="265" spans="1:51" x14ac:dyDescent="0.25">
@@ -39550,28 +40849,55 @@
         <v>2022</v>
       </c>
       <c r="B265" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C265" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D265">
-        <v>-3931741047.997678</v>
+        <v>-4972324716.121502</v>
       </c>
       <c r="E265">
-        <v>-4218283711.831724</v>
+        <v>-5426125020.720147</v>
+      </c>
+      <c r="F265">
+        <v>-6022722103.200725</v>
+      </c>
+      <c r="G265">
+        <v>-5218807117.633831</v>
+      </c>
+      <c r="P265">
+        <v>-16421171840.042374</v>
       </c>
       <c r="T265">
-        <v>3128467640.898031</v>
+        <v>6004207919.736809</v>
       </c>
       <c r="U265">
-        <v>3543820326.6966877</v>
+        <v>5470319226.912009</v>
+      </c>
+      <c r="V265">
+        <v>5881638337.509988</v>
+      </c>
+      <c r="W265">
+        <v>6165264329.947868</v>
+      </c>
+      <c r="AF265">
+        <v>17356165484.158806</v>
       </c>
       <c r="AJ265">
-        <v>7060208688.895709</v>
+        <v>10976532635.85831</v>
       </c>
       <c r="AK265">
-        <v>7762104038.528412</v>
+        <v>10896444247.632156</v>
+      </c>
+      <c r="AL265">
+        <v>11904360440.710712</v>
+      </c>
+      <c r="AM265">
+        <v>11384071447.5817</v>
+      </c>
+      <c r="AV265">
+        <v>33777337324.20118</v>
       </c>
     </row>
     <row r="266" spans="1:51" x14ac:dyDescent="0.25">
@@ -39579,28 +40905,951 @@
         <v>2022</v>
       </c>
       <c r="B266" t="s">
+        <v>87</v>
+      </c>
+      <c r="C266" t="s">
+        <v>88</v>
+      </c>
+      <c r="D266">
+        <v>1928360658.940943</v>
+      </c>
+      <c r="E266">
+        <v>1537225499.9872012</v>
+      </c>
+      <c r="F266">
+        <v>1031630389.9777482</v>
+      </c>
+      <c r="G266">
+        <v>2233041552.59855</v>
+      </c>
+      <c r="P266">
+        <v>4497216548.905892</v>
+      </c>
+      <c r="T266">
+        <v>2334950111.3514557</v>
+      </c>
+      <c r="U266">
+        <v>1953120271.1423955</v>
+      </c>
+      <c r="V266">
+        <v>1844922580.2512853</v>
+      </c>
+      <c r="W266">
+        <v>2614178554.266426</v>
+      </c>
+      <c r="AF266">
+        <v>6132992962.745136</v>
+      </c>
+      <c r="AJ266">
+        <v>406589452.4105127</v>
+      </c>
+      <c r="AK266">
+        <v>415894771.15519416</v>
+      </c>
+      <c r="AL266">
+        <v>813292190.2735372</v>
+      </c>
+      <c r="AM266">
+        <v>381137001.667876</v>
+      </c>
+      <c r="AV266">
+        <v>1635776413.839244</v>
+      </c>
+    </row>
+    <row r="267" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2022</v>
+      </c>
+      <c r="B267" t="s">
+        <v>67</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267">
+        <v>-2567613448.836418</v>
+      </c>
+      <c r="E267">
+        <v>-2448800220.113008</v>
+      </c>
+      <c r="F267">
+        <v>-3255365226.931955</v>
+      </c>
+      <c r="G267">
+        <v>-3762970546.4818387</v>
+      </c>
+      <c r="P267">
+        <v>-8271778895.881382</v>
+      </c>
+      <c r="T267">
+        <v>4097709461.263343</v>
+      </c>
+      <c r="U267">
+        <v>4059344113.0666537</v>
+      </c>
+      <c r="V267">
+        <v>3640243121.3243194</v>
+      </c>
+      <c r="W267">
+        <v>3657302141.2503076</v>
+      </c>
+      <c r="AF267">
+        <v>11797296695.654316</v>
+      </c>
+      <c r="AJ267">
+        <v>6665322910.099761</v>
+      </c>
+      <c r="AK267">
+        <v>6508144333.179662</v>
+      </c>
+      <c r="AL267">
+        <v>6895608348.256274</v>
+      </c>
+      <c r="AM267">
+        <v>7420272687.732146</v>
+      </c>
+      <c r="AV267">
+        <v>20069075591.535698</v>
+      </c>
+    </row>
+    <row r="268" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2022</v>
+      </c>
+      <c r="B268" t="s">
+        <v>97</v>
+      </c>
+      <c r="C268" t="s">
+        <v>98</v>
+      </c>
+      <c r="D268">
+        <v>-4999960716</v>
+      </c>
+      <c r="E268">
+        <v>-4847988670</v>
+      </c>
+      <c r="F268">
+        <v>-4931110446</v>
+      </c>
+      <c r="G268">
+        <v>-6032714891</v>
+      </c>
+      <c r="P268">
+        <v>-14779059832</v>
+      </c>
+      <c r="T268">
+        <v>1089605925</v>
+      </c>
+      <c r="U268">
+        <v>1517857529</v>
+      </c>
+      <c r="V268">
+        <v>1742128161</v>
+      </c>
+      <c r="W268">
+        <v>1386576611</v>
+      </c>
+      <c r="AF268">
+        <v>4349591615</v>
+      </c>
+      <c r="AJ268">
+        <v>6089566641</v>
+      </c>
+      <c r="AK268">
+        <v>6365846199</v>
+      </c>
+      <c r="AL268">
+        <v>6673238607</v>
+      </c>
+      <c r="AM268">
+        <v>7419291502</v>
+      </c>
+      <c r="AV268">
+        <v>19128651447</v>
+      </c>
+    </row>
+    <row r="269" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2022</v>
+      </c>
+      <c r="B269" t="s">
+        <v>99</v>
+      </c>
+      <c r="C269" t="s">
+        <v>100</v>
+      </c>
+      <c r="D269">
+        <v>-603058850.5832996</v>
+      </c>
+      <c r="E269">
+        <v>-581526356.154644</v>
+      </c>
+      <c r="F269">
+        <v>-474207526.1252136</v>
+      </c>
+      <c r="G269">
+        <v>-578607113.2365029</v>
+      </c>
+      <c r="P269">
+        <v>-1658792732.8631573</v>
+      </c>
+      <c r="T269">
+        <v>1259161171.9748788</v>
+      </c>
+      <c r="U269">
+        <v>1200536983.9061072</v>
+      </c>
+      <c r="V269">
+        <v>1260424298.5142138</v>
+      </c>
+      <c r="W269">
+        <v>1263232425.056392</v>
+      </c>
+      <c r="AF269">
+        <v>3720122454.3952</v>
+      </c>
+      <c r="AJ269">
+        <v>1862220022.5581784</v>
+      </c>
+      <c r="AK269">
+        <v>1782063340.0607512</v>
+      </c>
+      <c r="AL269">
+        <v>1734631824.6394274</v>
+      </c>
+      <c r="AM269">
+        <v>1841839538.2928948</v>
+      </c>
+      <c r="AV269">
+        <v>5378915187.258357</v>
+      </c>
+    </row>
+    <row r="270" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2022</v>
+      </c>
+      <c r="B270" t="s">
+        <v>69</v>
+      </c>
+      <c r="C270" t="s">
+        <v>70</v>
+      </c>
+      <c r="D270">
+        <v>-3177057362.121812</v>
+      </c>
+      <c r="E270">
+        <v>-2946333355.987953</v>
+      </c>
+      <c r="F270">
+        <v>-3403109024.0473504</v>
+      </c>
+      <c r="G270">
+        <v>-3316753311.8692455</v>
+      </c>
+      <c r="P270">
+        <v>-9526499742.157116</v>
+      </c>
+      <c r="T270">
+        <v>2186906649.3537445</v>
+      </c>
+      <c r="U270">
+        <v>2342249486.7829046</v>
+      </c>
+      <c r="V270">
+        <v>2291948273.2317443</v>
+      </c>
+      <c r="W270">
+        <v>2334436862.1680546</v>
+      </c>
+      <c r="AF270">
+        <v>6821104409.368393</v>
+      </c>
+      <c r="AJ270">
+        <v>5363964011.475556</v>
+      </c>
+      <c r="AK270">
+        <v>5288582842.770858</v>
+      </c>
+      <c r="AL270">
+        <v>5695057297.279095</v>
+      </c>
+      <c r="AM270">
+        <v>5651190174.0373</v>
+      </c>
+      <c r="AV270">
+        <v>16347604151.525509</v>
+      </c>
+    </row>
+    <row r="271" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2022</v>
+      </c>
+      <c r="B271" t="s">
+        <v>71</v>
+      </c>
+      <c r="C271" t="s">
+        <v>72</v>
+      </c>
+      <c r="D271">
+        <v>-7222181203.649317</v>
+      </c>
+      <c r="E271">
+        <v>-5250330513.985655</v>
+      </c>
+      <c r="F271">
+        <v>-6181357273.614293</v>
+      </c>
+      <c r="G271">
+        <v>-5609678108.885045</v>
+      </c>
+      <c r="P271">
+        <v>-18653868991.249264</v>
+      </c>
+      <c r="T271">
+        <v>6213980561.524984</v>
+      </c>
+      <c r="U271">
+        <v>7212593701.568218</v>
+      </c>
+      <c r="V271">
+        <v>6883516948.091136</v>
+      </c>
+      <c r="W271">
+        <v>6229735736.1834</v>
+      </c>
+      <c r="AF271">
+        <v>20310091211.184338</v>
+      </c>
+      <c r="AJ271">
+        <v>13436161765.174301</v>
+      </c>
+      <c r="AK271">
+        <v>12462924215.553873</v>
+      </c>
+      <c r="AL271">
+        <v>13064874221.70543</v>
+      </c>
+      <c r="AM271">
+        <v>11839413845.068445</v>
+      </c>
+      <c r="AV271">
+        <v>38963960202.4336</v>
+      </c>
+    </row>
+    <row r="272" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2022</v>
+      </c>
+      <c r="B272" t="s">
+        <v>73</v>
+      </c>
+      <c r="C272" t="s">
+        <v>74</v>
+      </c>
+      <c r="D272">
+        <v>-3301157337.43676</v>
+      </c>
+      <c r="E272">
+        <v>-4325778180.7604885</v>
+      </c>
+      <c r="F272">
+        <v>-3227138399.9680996</v>
+      </c>
+      <c r="G272">
+        <v>-3873857797.158801</v>
+      </c>
+      <c r="P272">
+        <v>-10854073918.165348</v>
+      </c>
+      <c r="T272">
+        <v>5735618071.438234</v>
+      </c>
+      <c r="U272">
+        <v>5243104110.551737</v>
+      </c>
+      <c r="V272">
+        <v>5591255168.691034</v>
+      </c>
+      <c r="W272">
+        <v>5783591225.626266</v>
+      </c>
+      <c r="AF272">
+        <v>16569977350.681005</v>
+      </c>
+      <c r="AJ272">
+        <v>9036775408.874994</v>
+      </c>
+      <c r="AK272">
+        <v>9568882291.312225</v>
+      </c>
+      <c r="AL272">
+        <v>8818393568.659134</v>
+      </c>
+      <c r="AM272">
+        <v>9657449022.785067</v>
+      </c>
+      <c r="AV272">
+        <v>27424051268.84635</v>
+      </c>
+    </row>
+    <row r="273" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2022</v>
+      </c>
+      <c r="B273" t="s">
+        <v>101</v>
+      </c>
+      <c r="C273" t="s">
+        <v>102</v>
+      </c>
+      <c r="D273">
+        <v>-3492318947.957245</v>
+      </c>
+      <c r="E273">
+        <v>-3017801272.578343</v>
+      </c>
+      <c r="F273">
+        <v>-3849556222.1248984</v>
+      </c>
+      <c r="G273">
+        <v>-3058634402.766331</v>
+      </c>
+      <c r="P273">
+        <v>-10359676442.660486</v>
+      </c>
+      <c r="T273">
+        <v>1409139082.6399357</v>
+      </c>
+      <c r="U273">
+        <v>1409932642.9815278</v>
+      </c>
+      <c r="V273">
+        <v>1519115788.044993</v>
+      </c>
+      <c r="W273">
+        <v>1452333625.9137692</v>
+      </c>
+      <c r="AF273">
+        <v>4338187513.666456</v>
+      </c>
+      <c r="AJ273">
+        <v>4901458030.59718</v>
+      </c>
+      <c r="AK273">
+        <v>4427733915.559871</v>
+      </c>
+      <c r="AL273">
+        <v>5368672010.169891</v>
+      </c>
+      <c r="AM273">
+        <v>4510968028.6801</v>
+      </c>
+      <c r="AV273">
+        <v>14697863956.326942</v>
+      </c>
+    </row>
+    <row r="274" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="s">
+        <v>75</v>
+      </c>
+      <c r="C274" t="s">
+        <v>76</v>
+      </c>
+      <c r="D274">
+        <v>-11668037284.679413</v>
+      </c>
+      <c r="E274">
+        <v>-9894113141.84171</v>
+      </c>
+      <c r="F274">
+        <v>-9788998004.38163</v>
+      </c>
+      <c r="G274">
+        <v>-11503983235.910831</v>
+      </c>
+      <c r="P274">
+        <v>-31351148430.902752</v>
+      </c>
+      <c r="T274">
+        <v>24852384319.4738</v>
+      </c>
+      <c r="U274">
+        <v>25223473570.41434</v>
+      </c>
+      <c r="V274">
+        <v>27523528113.49166</v>
+      </c>
+      <c r="W274">
+        <v>27828913938.562237</v>
+      </c>
+      <c r="AF274">
+        <v>77599386003.37979</v>
+      </c>
+      <c r="AJ274">
+        <v>36520421604.15321</v>
+      </c>
+      <c r="AK274">
+        <v>35117586712.25605</v>
+      </c>
+      <c r="AL274">
+        <v>37312526117.87329</v>
+      </c>
+      <c r="AM274">
+        <v>39332897174.47307</v>
+      </c>
+      <c r="AV274">
+        <v>108950534434.28256</v>
+      </c>
+    </row>
+    <row r="275" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="s">
+        <v>103</v>
+      </c>
+      <c r="C275" t="s">
+        <v>104</v>
+      </c>
+      <c r="D275">
+        <v>1793676736</v>
+      </c>
+      <c r="E275">
+        <v>2714866480</v>
+      </c>
+      <c r="F275">
+        <v>2331638383</v>
+      </c>
+      <c r="G275">
+        <v>2964602565</v>
+      </c>
+      <c r="P275">
+        <v>6840181599</v>
+      </c>
+      <c r="T275">
+        <v>4025509715</v>
+      </c>
+      <c r="U275">
+        <v>5473346756</v>
+      </c>
+      <c r="V275">
+        <v>6187008966</v>
+      </c>
+      <c r="W275">
+        <v>6182582956</v>
+      </c>
+      <c r="AF275">
+        <v>15685865437</v>
+      </c>
+      <c r="AJ275">
+        <v>2231832979</v>
+      </c>
+      <c r="AK275">
+        <v>2758480276</v>
+      </c>
+      <c r="AL275">
+        <v>3855370583</v>
+      </c>
+      <c r="AM275">
+        <v>3217980391</v>
+      </c>
+      <c r="AV275">
+        <v>8845683838</v>
+      </c>
+    </row>
+    <row r="276" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2022</v>
+      </c>
+      <c r="B276" t="s">
+        <v>81</v>
+      </c>
+      <c r="C276" t="s">
+        <v>82</v>
+      </c>
+      <c r="D276">
+        <v>-828273314.3611964</v>
+      </c>
+      <c r="E276">
+        <v>-830724809.493829</v>
+      </c>
+      <c r="F276">
+        <v>-800498532.878524</v>
+      </c>
+      <c r="G276">
+        <v>-941082827.3380128</v>
+      </c>
+      <c r="P276">
+        <v>-2459496656.733549</v>
+      </c>
+      <c r="T276">
+        <v>838922059.3925091</v>
+      </c>
+      <c r="U276">
+        <v>888408056.7917883</v>
+      </c>
+      <c r="V276">
+        <v>986731990.6666228</v>
+      </c>
+      <c r="W276">
+        <v>959840636.9432489</v>
+      </c>
+      <c r="AF276">
+        <v>2714062106.85092</v>
+      </c>
+      <c r="AJ276">
+        <v>1667195373.7537055</v>
+      </c>
+      <c r="AK276">
+        <v>1719132866.2856174</v>
+      </c>
+      <c r="AL276">
+        <v>1787230523.5451467</v>
+      </c>
+      <c r="AM276">
+        <v>1900923464.2812617</v>
+      </c>
+      <c r="AV276">
+        <v>5173558763.58447</v>
+      </c>
+    </row>
+    <row r="277" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="s">
+        <v>89</v>
+      </c>
+      <c r="C277" t="s">
+        <v>90</v>
+      </c>
+      <c r="D277">
+        <v>1175175436.0416517</v>
+      </c>
+      <c r="E277">
+        <v>937216962.1252046</v>
+      </c>
+      <c r="F277">
+        <v>130499011.9312396</v>
+      </c>
+      <c r="G277">
+        <v>626799717.0192814</v>
+      </c>
+      <c r="P277">
+        <v>2242891410.098096</v>
+      </c>
+      <c r="T277">
+        <v>3767762854.8280005</v>
+      </c>
+      <c r="U277">
+        <v>3292957846.506871</v>
+      </c>
+      <c r="V277">
+        <v>3473771037.7543488</v>
+      </c>
+      <c r="W277">
+        <v>3240365073.040265</v>
+      </c>
+      <c r="AF277">
+        <v>10534491739.08922</v>
+      </c>
+      <c r="AJ277">
+        <v>2592587418.786349</v>
+      </c>
+      <c r="AK277">
+        <v>2355740884.3816667</v>
+      </c>
+      <c r="AL277">
+        <v>3343272025.823109</v>
+      </c>
+      <c r="AM277">
+        <v>2613565356.0209837</v>
+      </c>
+      <c r="AV277">
+        <v>8291600328.991125</v>
+      </c>
+    </row>
+    <row r="278" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="s">
+        <v>83</v>
+      </c>
+      <c r="C278" t="s">
+        <v>84</v>
+      </c>
+      <c r="D278">
+        <v>4244051276.5808296</v>
+      </c>
+      <c r="E278">
+        <v>5782149145.7699375</v>
+      </c>
+      <c r="F278">
+        <v>6452125039.9010105</v>
+      </c>
+      <c r="G278">
+        <v>7689963050.60607</v>
+      </c>
+      <c r="P278">
+        <v>16478325462.251778</v>
+      </c>
+      <c r="T278">
+        <v>16554738843.523726</v>
+      </c>
+      <c r="U278">
+        <v>17138483010.634005</v>
+      </c>
+      <c r="V278">
+        <v>18559929522.453747</v>
+      </c>
+      <c r="W278">
+        <v>20458171402.36523</v>
+      </c>
+      <c r="AF278">
+        <v>52253151376.61148</v>
+      </c>
+      <c r="AJ278">
+        <v>12310687566.942896</v>
+      </c>
+      <c r="AK278">
+        <v>11356333864.864067</v>
+      </c>
+      <c r="AL278">
+        <v>12107804482.552736</v>
+      </c>
+      <c r="AM278">
+        <v>12768208351.759161</v>
+      </c>
+      <c r="AV278">
+        <v>35774825914.359695</v>
+      </c>
+    </row>
+    <row r="279" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="s">
+        <v>105</v>
+      </c>
+      <c r="C279" t="s">
+        <v>106</v>
+      </c>
+      <c r="D279">
+        <v>-2200684084.744729</v>
+      </c>
+      <c r="E279">
+        <v>-3581282085.366926</v>
+      </c>
+      <c r="F279">
+        <v>-7674779899.586874</v>
+      </c>
+      <c r="G279">
+        <v>-2938941334.072592</v>
+      </c>
+      <c r="P279">
+        <v>-13456746069.698528</v>
+      </c>
+      <c r="T279">
+        <v>2044512883.3264346</v>
+      </c>
+      <c r="U279">
+        <v>2081584550.364771</v>
+      </c>
+      <c r="V279">
+        <v>1539339546.3630047</v>
+      </c>
+      <c r="W279">
+        <v>2207493067.9783983</v>
+      </c>
+      <c r="AF279">
+        <v>5665436980.054211</v>
+      </c>
+      <c r="AJ279">
+        <v>4245196968.0711637</v>
+      </c>
+      <c r="AK279">
+        <v>5662866635.731697</v>
+      </c>
+      <c r="AL279">
+        <v>9214119445.949879</v>
+      </c>
+      <c r="AM279">
+        <v>5146434402.05099</v>
+      </c>
+      <c r="AV279">
+        <v>19122183049.75274</v>
+      </c>
+    </row>
+    <row r="280" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2022</v>
+      </c>
+      <c r="B280" t="s">
+        <v>91</v>
+      </c>
+      <c r="C280" t="s">
+        <v>92</v>
+      </c>
+      <c r="D280">
+        <v>-4063988098.427439</v>
+      </c>
+      <c r="E280">
+        <v>-4363523245.343431</v>
+      </c>
+      <c r="F280">
+        <v>-5079607718.745729</v>
+      </c>
+      <c r="G280">
+        <v>-3852645188.4086127</v>
+      </c>
+      <c r="P280">
+        <v>-13507119062.5166</v>
+      </c>
+      <c r="T280">
+        <v>3094183397.9527802</v>
+      </c>
+      <c r="U280">
+        <v>3511723733.500823</v>
+      </c>
+      <c r="V280">
+        <v>3572483778.181442</v>
+      </c>
+      <c r="W280">
+        <v>3781969032.4697785</v>
+      </c>
+      <c r="AF280">
+        <v>10178390909.635046</v>
+      </c>
+      <c r="AJ280">
+        <v>7158171496.380219</v>
+      </c>
+      <c r="AK280">
+        <v>7875246978.8442545</v>
+      </c>
+      <c r="AL280">
+        <v>8652091496.927172</v>
+      </c>
+      <c r="AM280">
+        <v>7634614220.878391</v>
+      </c>
+      <c r="AV280">
+        <v>23685509972.151646</v>
+      </c>
+    </row>
+    <row r="281" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2022</v>
+      </c>
+      <c r="B281" t="s">
         <v>85</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C281" t="s">
         <v>86</v>
       </c>
-      <c r="D266">
-        <v>1047288381.9423265</v>
-      </c>
-      <c r="E266">
-        <v>928302166.0825481</v>
-      </c>
-      <c r="T266">
-        <v>5650655395.624707</v>
-      </c>
-      <c r="U266">
-        <v>5312906596.058622</v>
-      </c>
-      <c r="AJ266">
-        <v>4603367013.682381</v>
-      </c>
-      <c r="AK266">
-        <v>4384604429.976074</v>
+      <c r="D281">
+        <v>1036189235.2986794</v>
+      </c>
+      <c r="E281">
+        <v>1085350192.595581</v>
+      </c>
+      <c r="F281">
+        <v>509398393.2438593</v>
+      </c>
+      <c r="G281">
+        <v>1015018121.8497696</v>
+      </c>
+      <c r="P281">
+        <v>2630937821.1381197</v>
+      </c>
+      <c r="T281">
+        <v>5660286400.367597</v>
+      </c>
+      <c r="U281">
+        <v>5496684532.8315325</v>
+      </c>
+      <c r="V281">
+        <v>5695905387.488229</v>
+      </c>
+      <c r="W281">
+        <v>6555634115.813728</v>
+      </c>
+      <c r="AF281">
+        <v>16852876320.687359</v>
+      </c>
+      <c r="AJ281">
+        <v>4624097165.068917</v>
+      </c>
+      <c r="AK281">
+        <v>4411334340.235951</v>
+      </c>
+      <c r="AL281">
+        <v>5186506994.2443695</v>
+      </c>
+      <c r="AM281">
+        <v>5540615993.963959</v>
+      </c>
+      <c r="AV281">
+        <v>14221938499.549238</v>
+      </c>
+    </row>
+    <row r="282" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2022</v>
+      </c>
+      <c r="B282" t="s">
+        <v>107</v>
+      </c>
+      <c r="C282" t="s">
+        <v>108</v>
+      </c>
+      <c r="D282">
+        <v>-8790460840.509514</v>
+      </c>
+      <c r="E282">
+        <v>-7966364154.634871</v>
+      </c>
+      <c r="F282">
+        <v>-10726229516.80991</v>
+      </c>
+      <c r="G282">
+        <v>-11065065046.89199</v>
+      </c>
+      <c r="P282">
+        <v>-27483054511.954292</v>
+      </c>
+      <c r="T282">
+        <v>805802861.6145245</v>
+      </c>
+      <c r="U282">
+        <v>829553400.8102573</v>
+      </c>
+      <c r="V282">
+        <v>965876478.6268932</v>
+      </c>
+      <c r="W282">
+        <v>1153285398.6093216</v>
+      </c>
+      <c r="AF282">
+        <v>2601232741.051675</v>
+      </c>
+      <c r="AJ282">
+        <v>9596263702.124039</v>
+      </c>
+      <c r="AK282">
+        <v>8795917555.445127</v>
+      </c>
+      <c r="AL282">
+        <v>11692105995.436804</v>
+      </c>
+      <c r="AM282">
+        <v>12218350445.501312</v>
+      </c>
+      <c r="AV282">
+        <v>30084287253.005974</v>
       </c>
     </row>
   </sheetData>
